--- a/Salt/data/salt_cont_auth_updated_hyper_tension.xlsx
+++ b/Salt/data/salt_cont_auth_updated_hyper_tension.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24827"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24931"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mansj\IQL\salt\data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\yuanx\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9B28AE7C-35C9-434D-A94F-CB768A32DCE6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C79D1F95-2D91-4CC7-88E4-90FA0D218FE8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-90" yWindow="-90" windowWidth="19380" windowHeight="10260" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="output" sheetId="1" r:id="rId1"/>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1828" uniqueCount="935">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1850" uniqueCount="935">
   <si>
     <t>ID</t>
   </si>
@@ -3680,13 +3680,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:G582"/>
+  <dimension ref="A1:G581"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B1" sqref="B1"/>
+    <sheetView tabSelected="1" topLeftCell="A554" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="E558" sqref="E558"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="14.75" x14ac:dyDescent="0.75"/>
   <cols>
     <col min="2" max="2" width="68.453125" customWidth="1"/>
     <col min="3" max="3" width="26.08984375" customWidth="1"/>
@@ -3694,7 +3694,7 @@
     <col min="5" max="5" width="26.1796875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.75">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -3717,7 +3717,7 @@
         <v>890</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.75">
       <c r="A2">
         <v>1</v>
       </c>
@@ -3737,7 +3737,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.75">
       <c r="A3">
         <v>1</v>
       </c>
@@ -3757,7 +3757,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.75">
       <c r="A4">
         <v>1</v>
       </c>
@@ -3777,7 +3777,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.75">
       <c r="A5">
         <v>1</v>
       </c>
@@ -3797,7 +3797,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.75">
       <c r="A6">
         <v>2</v>
       </c>
@@ -3817,7 +3817,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.75">
       <c r="A7">
         <v>2</v>
       </c>
@@ -3837,7 +3837,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:7" x14ac:dyDescent="0.75">
       <c r="A8">
         <v>2</v>
       </c>
@@ -3857,7 +3857,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:7" x14ac:dyDescent="0.75">
       <c r="A9">
         <v>2</v>
       </c>
@@ -3877,7 +3877,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:7" x14ac:dyDescent="0.75">
       <c r="A10">
         <v>3</v>
       </c>
@@ -3897,7 +3897,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:7" x14ac:dyDescent="0.75">
       <c r="A11">
         <v>3</v>
       </c>
@@ -3917,7 +3917,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:7" x14ac:dyDescent="0.75">
       <c r="A12">
         <v>3</v>
       </c>
@@ -3937,7 +3937,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:7" x14ac:dyDescent="0.75">
       <c r="A13">
         <v>3</v>
       </c>
@@ -3957,7 +3957,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:7" x14ac:dyDescent="0.75">
       <c r="A14">
         <v>4</v>
       </c>
@@ -3977,7 +3977,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:7" x14ac:dyDescent="0.75">
       <c r="A15">
         <v>4</v>
       </c>
@@ -3997,7 +3997,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:7" x14ac:dyDescent="0.75">
       <c r="A16">
         <v>4</v>
       </c>
@@ -4017,7 +4017,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:7" x14ac:dyDescent="0.75">
       <c r="A17">
         <v>4</v>
       </c>
@@ -4037,7 +4037,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:7" x14ac:dyDescent="0.75">
       <c r="A18">
         <v>5</v>
       </c>
@@ -4057,7 +4057,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:7" x14ac:dyDescent="0.75">
       <c r="A19">
         <v>5</v>
       </c>
@@ -4077,7 +4077,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:7" x14ac:dyDescent="0.75">
       <c r="A20">
         <v>5</v>
       </c>
@@ -4097,7 +4097,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:7" x14ac:dyDescent="0.75">
       <c r="A21">
         <v>5</v>
       </c>
@@ -4117,7 +4117,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="22" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:7" x14ac:dyDescent="0.75">
       <c r="A22">
         <v>5</v>
       </c>
@@ -4137,7 +4137,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="23" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:7" x14ac:dyDescent="0.75">
       <c r="A23">
         <v>7</v>
       </c>
@@ -4157,7 +4157,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="24" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:7" x14ac:dyDescent="0.75">
       <c r="A24">
         <v>7</v>
       </c>
@@ -4177,7 +4177,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="25" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:7" x14ac:dyDescent="0.75">
       <c r="A25">
         <v>7</v>
       </c>
@@ -4197,7 +4197,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="26" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:7" x14ac:dyDescent="0.75">
       <c r="A26">
         <v>7</v>
       </c>
@@ -4217,7 +4217,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="27" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:7" x14ac:dyDescent="0.75">
       <c r="A27">
         <v>9</v>
       </c>
@@ -4237,7 +4237,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="28" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:7" x14ac:dyDescent="0.75">
       <c r="A28">
         <v>9</v>
       </c>
@@ -4257,7 +4257,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="29" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:7" x14ac:dyDescent="0.75">
       <c r="A29">
         <v>9</v>
       </c>
@@ -4277,7 +4277,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="30" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:7" x14ac:dyDescent="0.75">
       <c r="A30">
         <v>9</v>
       </c>
@@ -4297,7 +4297,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="31" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="31" spans="1:7" x14ac:dyDescent="0.75">
       <c r="A31">
         <v>9</v>
       </c>
@@ -4317,7 +4317,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="32" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="32" spans="1:7" x14ac:dyDescent="0.75">
       <c r="A32">
         <v>9</v>
       </c>
@@ -4337,7 +4337,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="33" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="33" spans="1:7" x14ac:dyDescent="0.75">
       <c r="A33">
         <v>12</v>
       </c>
@@ -4357,7 +4357,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="34" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="34" spans="1:7" x14ac:dyDescent="0.75">
       <c r="A34">
         <v>12</v>
       </c>
@@ -4377,7 +4377,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="35" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="35" spans="1:7" x14ac:dyDescent="0.75">
       <c r="A35">
         <v>12</v>
       </c>
@@ -4397,7 +4397,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="36" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="36" spans="1:7" x14ac:dyDescent="0.75">
       <c r="A36">
         <v>12</v>
       </c>
@@ -4417,7 +4417,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="37" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="37" spans="1:7" x14ac:dyDescent="0.75">
       <c r="A37">
         <v>12</v>
       </c>
@@ -4437,7 +4437,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="38" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="38" spans="1:7" x14ac:dyDescent="0.75">
       <c r="A38">
         <v>12</v>
       </c>
@@ -4457,7 +4457,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="39" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="39" spans="1:7" x14ac:dyDescent="0.75">
       <c r="A39">
         <v>13</v>
       </c>
@@ -4477,7 +4477,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="40" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="40" spans="1:7" x14ac:dyDescent="0.75">
       <c r="A40">
         <v>13</v>
       </c>
@@ -4497,7 +4497,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="41" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="41" spans="1:7" x14ac:dyDescent="0.75">
       <c r="A41">
         <v>13</v>
       </c>
@@ -4517,7 +4517,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="42" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="42" spans="1:7" x14ac:dyDescent="0.75">
       <c r="A42">
         <v>13</v>
       </c>
@@ -4537,7 +4537,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="43" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="43" spans="1:7" x14ac:dyDescent="0.75">
       <c r="A43">
         <v>26</v>
       </c>
@@ -4557,7 +4557,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="44" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="44" spans="1:7" x14ac:dyDescent="0.75">
       <c r="A44">
         <v>26</v>
       </c>
@@ -4577,7 +4577,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="45" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="45" spans="1:7" x14ac:dyDescent="0.75">
       <c r="A45">
         <v>26</v>
       </c>
@@ -4597,7 +4597,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="46" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="46" spans="1:7" x14ac:dyDescent="0.75">
       <c r="A46">
         <v>26</v>
       </c>
@@ -4617,7 +4617,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="47" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="47" spans="1:7" x14ac:dyDescent="0.75">
       <c r="A47">
         <v>26</v>
       </c>
@@ -4637,7 +4637,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="48" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="48" spans="1:7" x14ac:dyDescent="0.75">
       <c r="A48">
         <v>26</v>
       </c>
@@ -4657,7 +4657,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="49" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="49" spans="1:7" x14ac:dyDescent="0.75">
       <c r="A49">
         <v>27</v>
       </c>
@@ -4677,7 +4677,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="50" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="50" spans="1:7" x14ac:dyDescent="0.75">
       <c r="A50">
         <v>27</v>
       </c>
@@ -4697,7 +4697,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="51" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="51" spans="1:7" x14ac:dyDescent="0.75">
       <c r="A51">
         <v>27</v>
       </c>
@@ -4717,7 +4717,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="52" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="52" spans="1:7" x14ac:dyDescent="0.75">
       <c r="A52">
         <v>27</v>
       </c>
@@ -4737,7 +4737,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="53" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="53" spans="1:7" x14ac:dyDescent="0.75">
       <c r="A53">
         <v>30</v>
       </c>
@@ -4757,7 +4757,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="54" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="54" spans="1:7" x14ac:dyDescent="0.75">
       <c r="A54">
         <v>30</v>
       </c>
@@ -4777,7 +4777,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="55" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="55" spans="1:7" x14ac:dyDescent="0.75">
       <c r="A55">
         <v>30</v>
       </c>
@@ -4797,7 +4797,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="56" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="56" spans="1:7" x14ac:dyDescent="0.75">
       <c r="A56">
         <v>30</v>
       </c>
@@ -4817,7 +4817,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="57" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="57" spans="1:7" x14ac:dyDescent="0.75">
       <c r="A57">
         <v>31</v>
       </c>
@@ -4837,7 +4837,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="58" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="58" spans="1:7" x14ac:dyDescent="0.75">
       <c r="A58">
         <v>31</v>
       </c>
@@ -4857,7 +4857,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="59" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="59" spans="1:7" x14ac:dyDescent="0.75">
       <c r="A59">
         <v>31</v>
       </c>
@@ -4877,7 +4877,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="60" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="60" spans="1:7" x14ac:dyDescent="0.75">
       <c r="A60">
         <v>31</v>
       </c>
@@ -4897,7 +4897,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="61" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="61" spans="1:7" x14ac:dyDescent="0.75">
       <c r="A61">
         <v>31</v>
       </c>
@@ -4917,7 +4917,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="62" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="62" spans="1:7" x14ac:dyDescent="0.75">
       <c r="A62">
         <v>33</v>
       </c>
@@ -4937,7 +4937,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="63" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="63" spans="1:7" x14ac:dyDescent="0.75">
       <c r="A63">
         <v>33</v>
       </c>
@@ -4957,7 +4957,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="64" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="64" spans="1:7" x14ac:dyDescent="0.75">
       <c r="A64">
         <v>33</v>
       </c>
@@ -4977,7 +4977,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="65" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="65" spans="1:7" x14ac:dyDescent="0.75">
       <c r="A65">
         <v>33</v>
       </c>
@@ -4997,7 +4997,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="66" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="66" spans="1:7" x14ac:dyDescent="0.75">
       <c r="A66">
         <v>33</v>
       </c>
@@ -5017,7 +5017,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="67" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="67" spans="1:7" x14ac:dyDescent="0.75">
       <c r="A67">
         <v>34</v>
       </c>
@@ -5037,7 +5037,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="68" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="68" spans="1:7" x14ac:dyDescent="0.75">
       <c r="A68">
         <v>34</v>
       </c>
@@ -5057,7 +5057,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="69" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="69" spans="1:7" x14ac:dyDescent="0.75">
       <c r="A69">
         <v>34</v>
       </c>
@@ -5077,7 +5077,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="70" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="70" spans="1:7" x14ac:dyDescent="0.75">
       <c r="A70">
         <v>34</v>
       </c>
@@ -5097,7 +5097,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="71" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="71" spans="1:7" x14ac:dyDescent="0.75">
       <c r="A71">
         <v>34</v>
       </c>
@@ -5117,7 +5117,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="72" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="72" spans="1:7" x14ac:dyDescent="0.75">
       <c r="A72">
         <v>38</v>
       </c>
@@ -5137,7 +5137,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="73" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="73" spans="1:7" x14ac:dyDescent="0.75">
       <c r="A73">
         <v>39</v>
       </c>
@@ -5157,7 +5157,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="74" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="74" spans="1:7" x14ac:dyDescent="0.75">
       <c r="A74">
         <v>39</v>
       </c>
@@ -5177,7 +5177,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="75" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="75" spans="1:7" x14ac:dyDescent="0.75">
       <c r="A75">
         <v>39</v>
       </c>
@@ -5197,7 +5197,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="76" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="76" spans="1:7" x14ac:dyDescent="0.75">
       <c r="A76">
         <v>39</v>
       </c>
@@ -5217,7 +5217,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="77" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="77" spans="1:7" x14ac:dyDescent="0.75">
       <c r="A77">
         <v>39</v>
       </c>
@@ -5237,7 +5237,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="78" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="78" spans="1:7" x14ac:dyDescent="0.75">
       <c r="A78">
         <v>40</v>
       </c>
@@ -5257,7 +5257,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="79" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="79" spans="1:7" x14ac:dyDescent="0.75">
       <c r="A79">
         <v>40</v>
       </c>
@@ -5277,7 +5277,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="80" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="80" spans="1:7" x14ac:dyDescent="0.75">
       <c r="A80">
         <v>40</v>
       </c>
@@ -5297,7 +5297,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="81" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="81" spans="1:7" x14ac:dyDescent="0.75">
       <c r="A81">
         <v>40</v>
       </c>
@@ -5317,7 +5317,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="82" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="82" spans="1:7" x14ac:dyDescent="0.75">
       <c r="A82">
         <v>40</v>
       </c>
@@ -5337,7 +5337,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="83" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="83" spans="1:7" x14ac:dyDescent="0.75">
       <c r="A83">
         <v>40</v>
       </c>
@@ -5357,7 +5357,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="84" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="84" spans="1:7" x14ac:dyDescent="0.75">
       <c r="A84">
         <v>40</v>
       </c>
@@ -5377,7 +5377,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="85" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="85" spans="1:7" x14ac:dyDescent="0.75">
       <c r="A85">
         <v>41</v>
       </c>
@@ -5397,7 +5397,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="86" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="86" spans="1:7" x14ac:dyDescent="0.75">
       <c r="A86">
         <v>41</v>
       </c>
@@ -5417,7 +5417,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="87" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="87" spans="1:7" x14ac:dyDescent="0.75">
       <c r="A87">
         <v>41</v>
       </c>
@@ -5437,7 +5437,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="88" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="88" spans="1:7" x14ac:dyDescent="0.75">
       <c r="A88">
         <v>42</v>
       </c>
@@ -5457,7 +5457,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="89" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="89" spans="1:7" x14ac:dyDescent="0.75">
       <c r="A89">
         <v>42</v>
       </c>
@@ -5477,7 +5477,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="90" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="90" spans="1:7" x14ac:dyDescent="0.75">
       <c r="A90">
         <v>42</v>
       </c>
@@ -5497,7 +5497,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="91" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="91" spans="1:7" x14ac:dyDescent="0.75">
       <c r="A91">
         <v>42</v>
       </c>
@@ -5517,7 +5517,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="92" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="92" spans="1:7" x14ac:dyDescent="0.75">
       <c r="A92">
         <v>42</v>
       </c>
@@ -5537,7 +5537,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="93" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="93" spans="1:7" x14ac:dyDescent="0.75">
       <c r="A93">
         <v>42</v>
       </c>
@@ -5557,7 +5557,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="94" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="94" spans="1:7" x14ac:dyDescent="0.75">
       <c r="A94">
         <v>42</v>
       </c>
@@ -5577,7 +5577,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="95" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="95" spans="1:7" x14ac:dyDescent="0.75">
       <c r="A95">
         <v>42</v>
       </c>
@@ -5597,7 +5597,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="96" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="96" spans="1:7" x14ac:dyDescent="0.75">
       <c r="A96">
         <v>42</v>
       </c>
@@ -5617,7 +5617,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="97" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="97" spans="1:7" x14ac:dyDescent="0.75">
       <c r="A97">
         <v>42</v>
       </c>
@@ -5637,7 +5637,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="98" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="98" spans="1:7" x14ac:dyDescent="0.75">
       <c r="A98">
         <v>42</v>
       </c>
@@ -5657,7 +5657,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="99" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="99" spans="1:7" x14ac:dyDescent="0.75">
       <c r="A99">
         <v>43</v>
       </c>
@@ -5677,7 +5677,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="100" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="100" spans="1:7" x14ac:dyDescent="0.75">
       <c r="A100">
         <v>43</v>
       </c>
@@ -5697,7 +5697,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="101" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="101" spans="1:7" x14ac:dyDescent="0.75">
       <c r="A101">
         <v>43</v>
       </c>
@@ -5717,7 +5717,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="102" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="102" spans="1:7" x14ac:dyDescent="0.75">
       <c r="A102">
         <v>43</v>
       </c>
@@ -5737,7 +5737,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="103" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="103" spans="1:7" x14ac:dyDescent="0.75">
       <c r="A103">
         <v>43</v>
       </c>
@@ -5757,7 +5757,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="104" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="104" spans="1:7" x14ac:dyDescent="0.75">
       <c r="A104">
         <v>43</v>
       </c>
@@ -5777,7 +5777,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="105" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="105" spans="1:7" x14ac:dyDescent="0.75">
       <c r="A105">
         <v>45</v>
       </c>
@@ -5797,7 +5797,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="106" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="106" spans="1:7" x14ac:dyDescent="0.75">
       <c r="A106">
         <v>45</v>
       </c>
@@ -5817,7 +5817,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="107" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="107" spans="1:7" x14ac:dyDescent="0.75">
       <c r="A107">
         <v>45</v>
       </c>
@@ -5837,7 +5837,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="108" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="108" spans="1:7" x14ac:dyDescent="0.75">
       <c r="A108">
         <v>45</v>
       </c>
@@ -5857,7 +5857,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="109" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="109" spans="1:7" x14ac:dyDescent="0.75">
       <c r="A109">
         <v>45</v>
       </c>
@@ -5877,7 +5877,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="110" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="110" spans="1:7" x14ac:dyDescent="0.75">
       <c r="A110">
         <v>45</v>
       </c>
@@ -5897,7 +5897,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="111" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="111" spans="1:7" x14ac:dyDescent="0.75">
       <c r="A111">
         <v>47</v>
       </c>
@@ -5917,7 +5917,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="112" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="112" spans="1:7" x14ac:dyDescent="0.75">
       <c r="A112">
         <v>47</v>
       </c>
@@ -5937,7 +5937,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="113" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="113" spans="1:7" x14ac:dyDescent="0.75">
       <c r="A113">
         <v>47</v>
       </c>
@@ -5957,7 +5957,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="114" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="114" spans="1:7" x14ac:dyDescent="0.75">
       <c r="A114">
         <v>47</v>
       </c>
@@ -5977,7 +5977,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="115" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="115" spans="1:7" x14ac:dyDescent="0.75">
       <c r="A115">
         <v>47</v>
       </c>
@@ -5997,7 +5997,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="116" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="116" spans="1:7" x14ac:dyDescent="0.75">
       <c r="A116">
         <v>47</v>
       </c>
@@ -6017,7 +6017,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="117" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="117" spans="1:7" x14ac:dyDescent="0.75">
       <c r="A117">
         <v>47</v>
       </c>
@@ -6037,7 +6037,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="118" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="118" spans="1:7" x14ac:dyDescent="0.75">
       <c r="A118">
         <v>48</v>
       </c>
@@ -6057,7 +6057,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="119" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="119" spans="1:7" x14ac:dyDescent="0.75">
       <c r="A119">
         <v>48</v>
       </c>
@@ -6077,7 +6077,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="120" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="120" spans="1:7" x14ac:dyDescent="0.75">
       <c r="A120">
         <v>48</v>
       </c>
@@ -6097,7 +6097,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="121" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="121" spans="1:7" x14ac:dyDescent="0.75">
       <c r="A121">
         <v>48</v>
       </c>
@@ -6117,7 +6117,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="122" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="122" spans="1:7" x14ac:dyDescent="0.75">
       <c r="A122">
         <v>48</v>
       </c>
@@ -6137,7 +6137,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="123" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="123" spans="1:7" x14ac:dyDescent="0.75">
       <c r="A123">
         <v>48</v>
       </c>
@@ -6157,7 +6157,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="124" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="124" spans="1:7" x14ac:dyDescent="0.75">
       <c r="A124">
         <v>48</v>
       </c>
@@ -6177,7 +6177,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="125" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="125" spans="1:7" x14ac:dyDescent="0.75">
       <c r="A125">
         <v>48</v>
       </c>
@@ -6197,7 +6197,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="126" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="126" spans="1:7" x14ac:dyDescent="0.75">
       <c r="A126">
         <v>48</v>
       </c>
@@ -6217,7 +6217,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="127" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="127" spans="1:7" x14ac:dyDescent="0.75">
       <c r="A127">
         <v>49</v>
       </c>
@@ -6237,7 +6237,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="128" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="128" spans="1:7" x14ac:dyDescent="0.75">
       <c r="A128">
         <v>49</v>
       </c>
@@ -6257,7 +6257,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="129" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="129" spans="1:7" x14ac:dyDescent="0.75">
       <c r="A129">
         <v>49</v>
       </c>
@@ -6277,7 +6277,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="130" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="130" spans="1:7" x14ac:dyDescent="0.75">
       <c r="A130">
         <v>49</v>
       </c>
@@ -6297,7 +6297,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="131" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="131" spans="1:7" x14ac:dyDescent="0.75">
       <c r="A131">
         <v>50</v>
       </c>
@@ -6317,7 +6317,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="132" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="132" spans="1:7" x14ac:dyDescent="0.75">
       <c r="A132">
         <v>50</v>
       </c>
@@ -6337,7 +6337,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="133" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="133" spans="1:7" x14ac:dyDescent="0.75">
       <c r="A133">
         <v>50</v>
       </c>
@@ -6357,7 +6357,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="134" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="134" spans="1:7" x14ac:dyDescent="0.75">
       <c r="A134">
         <v>50</v>
       </c>
@@ -6377,7 +6377,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="135" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="135" spans="1:7" x14ac:dyDescent="0.75">
       <c r="A135">
         <v>50</v>
       </c>
@@ -6397,7 +6397,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="136" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="136" spans="1:7" x14ac:dyDescent="0.75">
       <c r="A136">
         <v>50</v>
       </c>
@@ -6417,7 +6417,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="137" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="137" spans="1:7" x14ac:dyDescent="0.75">
       <c r="A137">
         <v>50</v>
       </c>
@@ -6437,7 +6437,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="138" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="138" spans="1:7" x14ac:dyDescent="0.75">
       <c r="A138">
         <v>50</v>
       </c>
@@ -6457,7 +6457,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="139" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="139" spans="1:7" x14ac:dyDescent="0.75">
       <c r="A139">
         <v>50</v>
       </c>
@@ -6477,7 +6477,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="140" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="140" spans="1:7" x14ac:dyDescent="0.75">
       <c r="A140">
         <v>51</v>
       </c>
@@ -6497,7 +6497,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="141" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="141" spans="1:7" x14ac:dyDescent="0.75">
       <c r="A141">
         <v>51</v>
       </c>
@@ -6517,7 +6517,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="142" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="142" spans="1:7" x14ac:dyDescent="0.75">
       <c r="A142">
         <v>51</v>
       </c>
@@ -6537,7 +6537,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="143" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="143" spans="1:7" x14ac:dyDescent="0.75">
       <c r="A143">
         <v>51</v>
       </c>
@@ -6557,7 +6557,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="144" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="144" spans="1:7" x14ac:dyDescent="0.75">
       <c r="A144">
         <v>51</v>
       </c>
@@ -6577,7 +6577,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="145" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="145" spans="1:7" x14ac:dyDescent="0.75">
       <c r="A145">
         <v>51</v>
       </c>
@@ -6597,7 +6597,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="146" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="146" spans="1:7" x14ac:dyDescent="0.75">
       <c r="A146">
         <v>51</v>
       </c>
@@ -6617,7 +6617,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="147" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="147" spans="1:7" x14ac:dyDescent="0.75">
       <c r="A147">
         <v>51</v>
       </c>
@@ -6637,7 +6637,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="148" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="148" spans="1:7" x14ac:dyDescent="0.75">
       <c r="A148">
         <v>52</v>
       </c>
@@ -6657,7 +6657,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="149" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="149" spans="1:7" x14ac:dyDescent="0.75">
       <c r="A149">
         <v>52</v>
       </c>
@@ -6677,7 +6677,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="150" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="150" spans="1:7" x14ac:dyDescent="0.75">
       <c r="A150">
         <v>52</v>
       </c>
@@ -6697,7 +6697,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="151" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="151" spans="1:7" x14ac:dyDescent="0.75">
       <c r="A151">
         <v>52</v>
       </c>
@@ -6717,7 +6717,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="152" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="152" spans="1:7" x14ac:dyDescent="0.75">
       <c r="A152">
         <v>53</v>
       </c>
@@ -6737,7 +6737,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="153" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="153" spans="1:7" x14ac:dyDescent="0.75">
       <c r="A153">
         <v>53</v>
       </c>
@@ -6757,7 +6757,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="154" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="154" spans="1:7" x14ac:dyDescent="0.75">
       <c r="A154">
         <v>53</v>
       </c>
@@ -6777,7 +6777,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="155" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="155" spans="1:7" x14ac:dyDescent="0.75">
       <c r="A155">
         <v>53</v>
       </c>
@@ -6797,7 +6797,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="156" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="156" spans="1:7" x14ac:dyDescent="0.75">
       <c r="A156">
         <v>53</v>
       </c>
@@ -6817,7 +6817,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="157" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="157" spans="1:7" x14ac:dyDescent="0.75">
       <c r="A157">
         <v>53</v>
       </c>
@@ -6837,7 +6837,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="158" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="158" spans="1:7" x14ac:dyDescent="0.75">
       <c r="A158">
         <v>54</v>
       </c>
@@ -6857,7 +6857,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="159" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="159" spans="1:7" x14ac:dyDescent="0.75">
       <c r="A159">
         <v>54</v>
       </c>
@@ -6877,7 +6877,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="160" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="160" spans="1:7" x14ac:dyDescent="0.75">
       <c r="A160">
         <v>54</v>
       </c>
@@ -6897,7 +6897,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="161" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="161" spans="1:7" x14ac:dyDescent="0.75">
       <c r="A161">
         <v>54</v>
       </c>
@@ -6917,7 +6917,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="162" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="162" spans="1:7" x14ac:dyDescent="0.75">
       <c r="A162">
         <v>54</v>
       </c>
@@ -6937,7 +6937,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="163" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="163" spans="1:7" x14ac:dyDescent="0.75">
       <c r="A163">
         <v>54</v>
       </c>
@@ -6957,7 +6957,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="164" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="164" spans="1:7" x14ac:dyDescent="0.75">
       <c r="A164">
         <v>54</v>
       </c>
@@ -6977,7 +6977,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="165" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="165" spans="1:7" x14ac:dyDescent="0.75">
       <c r="A165">
         <v>54</v>
       </c>
@@ -6997,7 +6997,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="166" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="166" spans="1:7" x14ac:dyDescent="0.75">
       <c r="A166">
         <v>54</v>
       </c>
@@ -7017,7 +7017,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="167" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="167" spans="1:7" x14ac:dyDescent="0.75">
       <c r="A167">
         <v>54</v>
       </c>
@@ -7037,7 +7037,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="168" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="168" spans="1:7" x14ac:dyDescent="0.75">
       <c r="A168">
         <v>54</v>
       </c>
@@ -7057,7 +7057,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="169" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="169" spans="1:7" x14ac:dyDescent="0.75">
       <c r="A169">
         <v>54</v>
       </c>
@@ -7077,7 +7077,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="170" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="170" spans="1:7" x14ac:dyDescent="0.75">
       <c r="A170">
         <v>54</v>
       </c>
@@ -7097,7 +7097,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="171" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="171" spans="1:7" x14ac:dyDescent="0.75">
       <c r="A171">
         <v>54</v>
       </c>
@@ -7117,7 +7117,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="172" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="172" spans="1:7" x14ac:dyDescent="0.75">
       <c r="A172">
         <v>54</v>
       </c>
@@ -7137,7 +7137,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="173" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="173" spans="1:7" x14ac:dyDescent="0.75">
       <c r="A173">
         <v>54</v>
       </c>
@@ -7157,7 +7157,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="174" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="174" spans="1:7" x14ac:dyDescent="0.75">
       <c r="A174">
         <v>54</v>
       </c>
@@ -7177,7 +7177,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="175" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="175" spans="1:7" x14ac:dyDescent="0.75">
       <c r="A175">
         <v>54</v>
       </c>
@@ -7197,7 +7197,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="176" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="176" spans="1:7" x14ac:dyDescent="0.75">
       <c r="A176">
         <v>54</v>
       </c>
@@ -7217,7 +7217,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="177" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="177" spans="1:7" x14ac:dyDescent="0.75">
       <c r="A177">
         <v>54</v>
       </c>
@@ -7237,7 +7237,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="178" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="178" spans="1:7" x14ac:dyDescent="0.75">
       <c r="A178">
         <v>54</v>
       </c>
@@ -7257,7 +7257,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="179" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="179" spans="1:7" x14ac:dyDescent="0.75">
       <c r="A179">
         <v>54</v>
       </c>
@@ -7277,7 +7277,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="180" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="180" spans="1:7" x14ac:dyDescent="0.75">
       <c r="A180">
         <v>54</v>
       </c>
@@ -7297,7 +7297,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="181" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="181" spans="1:7" x14ac:dyDescent="0.75">
       <c r="A181">
         <v>54</v>
       </c>
@@ -7317,7 +7317,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="182" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="182" spans="1:7" x14ac:dyDescent="0.75">
       <c r="A182">
         <v>54</v>
       </c>
@@ -7337,7 +7337,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="183" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="183" spans="1:7" x14ac:dyDescent="0.75">
       <c r="A183">
         <v>54</v>
       </c>
@@ -7357,7 +7357,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="184" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="184" spans="1:7" x14ac:dyDescent="0.75">
       <c r="A184">
         <v>54</v>
       </c>
@@ -7377,7 +7377,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="185" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="185" spans="1:7" x14ac:dyDescent="0.75">
       <c r="A185">
         <v>54</v>
       </c>
@@ -7397,7 +7397,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="186" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="186" spans="1:7" x14ac:dyDescent="0.75">
       <c r="A186">
         <v>54</v>
       </c>
@@ -7417,7 +7417,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="187" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="187" spans="1:7" x14ac:dyDescent="0.75">
       <c r="A187">
         <v>54</v>
       </c>
@@ -7437,7 +7437,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="188" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="188" spans="1:7" x14ac:dyDescent="0.75">
       <c r="A188">
         <v>54</v>
       </c>
@@ -7457,7 +7457,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="189" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="189" spans="1:7" x14ac:dyDescent="0.75">
       <c r="A189">
         <v>54</v>
       </c>
@@ -7477,7 +7477,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="190" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="190" spans="1:7" x14ac:dyDescent="0.75">
       <c r="A190">
         <v>54</v>
       </c>
@@ -7497,7 +7497,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="191" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="191" spans="1:7" x14ac:dyDescent="0.75">
       <c r="A191">
         <v>54</v>
       </c>
@@ -7517,7 +7517,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="192" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="192" spans="1:7" x14ac:dyDescent="0.75">
       <c r="A192">
         <v>54</v>
       </c>
@@ -7537,7 +7537,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="193" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="193" spans="1:7" x14ac:dyDescent="0.75">
       <c r="A193">
         <v>54</v>
       </c>
@@ -7557,7 +7557,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="194" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="194" spans="1:7" x14ac:dyDescent="0.75">
       <c r="A194">
         <v>55</v>
       </c>
@@ -7577,7 +7577,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="195" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="195" spans="1:7" x14ac:dyDescent="0.75">
       <c r="A195">
         <v>55</v>
       </c>
@@ -7597,7 +7597,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="196" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="196" spans="1:7" x14ac:dyDescent="0.75">
       <c r="A196">
         <v>55</v>
       </c>
@@ -7617,7 +7617,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="197" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="197" spans="1:7" x14ac:dyDescent="0.75">
       <c r="A197">
         <v>55</v>
       </c>
@@ -7637,7 +7637,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="198" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="198" spans="1:7" x14ac:dyDescent="0.75">
       <c r="A198">
         <v>55</v>
       </c>
@@ -7657,7 +7657,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="199" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="199" spans="1:7" x14ac:dyDescent="0.75">
       <c r="A199">
         <v>55</v>
       </c>
@@ -7677,7 +7677,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="200" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="200" spans="1:7" x14ac:dyDescent="0.75">
       <c r="A200">
         <v>55</v>
       </c>
@@ -7697,7 +7697,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="201" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="201" spans="1:7" x14ac:dyDescent="0.75">
       <c r="A201">
         <v>55</v>
       </c>
@@ -7717,7 +7717,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="202" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="202" spans="1:7" x14ac:dyDescent="0.75">
       <c r="A202">
         <v>58</v>
       </c>
@@ -7737,7 +7737,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="203" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="203" spans="1:7" x14ac:dyDescent="0.75">
       <c r="A203">
         <v>58</v>
       </c>
@@ -7757,7 +7757,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="204" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="204" spans="1:7" x14ac:dyDescent="0.75">
       <c r="A204">
         <v>58</v>
       </c>
@@ -7777,7 +7777,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="205" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="205" spans="1:7" x14ac:dyDescent="0.75">
       <c r="A205">
         <v>58</v>
       </c>
@@ -7797,7 +7797,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="206" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="206" spans="1:7" x14ac:dyDescent="0.75">
       <c r="A206">
         <v>58</v>
       </c>
@@ -7817,7 +7817,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="207" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="207" spans="1:7" x14ac:dyDescent="0.75">
       <c r="A207">
         <v>58</v>
       </c>
@@ -7837,7 +7837,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="208" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="208" spans="1:7" x14ac:dyDescent="0.75">
       <c r="A208">
         <v>58</v>
       </c>
@@ -7857,7 +7857,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="209" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="209" spans="1:7" x14ac:dyDescent="0.75">
       <c r="A209">
         <v>59</v>
       </c>
@@ -7877,7 +7877,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="210" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="210" spans="1:7" x14ac:dyDescent="0.75">
       <c r="A210">
         <v>59</v>
       </c>
@@ -7897,7 +7897,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="211" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="211" spans="1:7" x14ac:dyDescent="0.75">
       <c r="A211">
         <v>59</v>
       </c>
@@ -7917,7 +7917,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="212" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="212" spans="1:7" x14ac:dyDescent="0.75">
       <c r="A212">
         <v>61</v>
       </c>
@@ -7937,7 +7937,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="213" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="213" spans="1:7" x14ac:dyDescent="0.75">
       <c r="A213">
         <v>61</v>
       </c>
@@ -7957,7 +7957,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="214" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="214" spans="1:7" x14ac:dyDescent="0.75">
       <c r="A214">
         <v>61</v>
       </c>
@@ -7977,7 +7977,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="215" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="215" spans="1:7" x14ac:dyDescent="0.75">
       <c r="A215">
         <v>61</v>
       </c>
@@ -7997,7 +7997,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="216" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="216" spans="1:7" x14ac:dyDescent="0.75">
       <c r="A216">
         <v>61</v>
       </c>
@@ -8017,7 +8017,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="217" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="217" spans="1:7" x14ac:dyDescent="0.75">
       <c r="A217">
         <v>61</v>
       </c>
@@ -8037,7 +8037,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="218" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="218" spans="1:7" x14ac:dyDescent="0.75">
       <c r="A218">
         <v>61</v>
       </c>
@@ -8057,7 +8057,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="219" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="219" spans="1:7" x14ac:dyDescent="0.75">
       <c r="A219">
         <v>61</v>
       </c>
@@ -8077,7 +8077,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="220" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="220" spans="1:7" x14ac:dyDescent="0.75">
       <c r="A220">
         <v>61</v>
       </c>
@@ -8097,7 +8097,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="221" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="221" spans="1:7" x14ac:dyDescent="0.75">
       <c r="A221">
         <v>61</v>
       </c>
@@ -8117,7 +8117,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="222" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="222" spans="1:7" x14ac:dyDescent="0.75">
       <c r="A222">
         <v>61</v>
       </c>
@@ -8137,7 +8137,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="223" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="223" spans="1:7" x14ac:dyDescent="0.75">
       <c r="A223">
         <v>61</v>
       </c>
@@ -8157,7 +8157,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="224" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="224" spans="1:7" x14ac:dyDescent="0.75">
       <c r="A224">
         <v>62</v>
       </c>
@@ -8177,7 +8177,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="225" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="225" spans="1:7" x14ac:dyDescent="0.75">
       <c r="A225">
         <v>62</v>
       </c>
@@ -8197,7 +8197,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="226" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="226" spans="1:7" x14ac:dyDescent="0.75">
       <c r="A226">
         <v>62</v>
       </c>
@@ -8217,7 +8217,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="227" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="227" spans="1:7" x14ac:dyDescent="0.75">
       <c r="A227">
         <v>62</v>
       </c>
@@ -8237,7 +8237,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="228" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="228" spans="1:7" x14ac:dyDescent="0.75">
       <c r="A228">
         <v>62</v>
       </c>
@@ -8257,7 +8257,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="229" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="229" spans="1:7" x14ac:dyDescent="0.75">
       <c r="A229">
         <v>62</v>
       </c>
@@ -8277,7 +8277,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="230" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="230" spans="1:7" x14ac:dyDescent="0.75">
       <c r="A230">
         <v>62</v>
       </c>
@@ -8297,7 +8297,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="231" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="231" spans="1:7" x14ac:dyDescent="0.75">
       <c r="A231">
         <v>62</v>
       </c>
@@ -8317,7 +8317,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="232" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="232" spans="1:7" x14ac:dyDescent="0.75">
       <c r="A232">
         <v>63</v>
       </c>
@@ -8337,7 +8337,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="233" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="233" spans="1:7" x14ac:dyDescent="0.75">
       <c r="A233">
         <v>63</v>
       </c>
@@ -8357,7 +8357,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="234" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="234" spans="1:7" x14ac:dyDescent="0.75">
       <c r="A234">
         <v>63</v>
       </c>
@@ -8377,7 +8377,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="235" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="235" spans="1:7" x14ac:dyDescent="0.75">
       <c r="A235">
         <v>63</v>
       </c>
@@ -8397,7 +8397,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="236" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="236" spans="1:7" x14ac:dyDescent="0.75">
       <c r="A236">
         <v>63</v>
       </c>
@@ -8417,7 +8417,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="237" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="237" spans="1:7" x14ac:dyDescent="0.75">
       <c r="A237">
         <v>63</v>
       </c>
@@ -8437,7 +8437,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="238" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="238" spans="1:7" x14ac:dyDescent="0.75">
       <c r="A238">
         <v>63</v>
       </c>
@@ -8457,7 +8457,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="239" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="239" spans="1:7" x14ac:dyDescent="0.75">
       <c r="A239">
         <v>63</v>
       </c>
@@ -8477,7 +8477,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="240" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="240" spans="1:7" x14ac:dyDescent="0.75">
       <c r="A240">
         <v>64</v>
       </c>
@@ -8497,7 +8497,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="241" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="241" spans="1:7" x14ac:dyDescent="0.75">
       <c r="A241">
         <v>64</v>
       </c>
@@ -8517,7 +8517,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="242" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="242" spans="1:7" x14ac:dyDescent="0.75">
       <c r="A242">
         <v>64</v>
       </c>
@@ -8537,7 +8537,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="243" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="243" spans="1:7" x14ac:dyDescent="0.75">
       <c r="A243">
         <v>64</v>
       </c>
@@ -8557,7 +8557,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="244" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="244" spans="1:7" x14ac:dyDescent="0.75">
       <c r="A244">
         <v>64</v>
       </c>
@@ -8577,7 +8577,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="245" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="245" spans="1:7" x14ac:dyDescent="0.75">
       <c r="A245">
         <v>64</v>
       </c>
@@ -8597,7 +8597,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="246" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="246" spans="1:7" x14ac:dyDescent="0.75">
       <c r="A246">
         <v>64</v>
       </c>
@@ -8617,7 +8617,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="247" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="247" spans="1:7" x14ac:dyDescent="0.75">
       <c r="A247">
         <v>65</v>
       </c>
@@ -8637,7 +8637,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="248" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="248" spans="1:7" x14ac:dyDescent="0.75">
       <c r="A248">
         <v>65</v>
       </c>
@@ -8657,7 +8657,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="249" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="249" spans="1:7" x14ac:dyDescent="0.75">
       <c r="A249">
         <v>65</v>
       </c>
@@ -8677,7 +8677,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="250" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="250" spans="1:7" x14ac:dyDescent="0.75">
       <c r="A250">
         <v>65</v>
       </c>
@@ -8697,7 +8697,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="251" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="251" spans="1:7" x14ac:dyDescent="0.75">
       <c r="A251">
         <v>66</v>
       </c>
@@ -8717,7 +8717,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="252" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="252" spans="1:7" x14ac:dyDescent="0.75">
       <c r="A252">
         <v>66</v>
       </c>
@@ -8737,7 +8737,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="253" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="253" spans="1:7" x14ac:dyDescent="0.75">
       <c r="A253">
         <v>66</v>
       </c>
@@ -8757,7 +8757,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="254" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="254" spans="1:7" x14ac:dyDescent="0.75">
       <c r="A254">
         <v>66</v>
       </c>
@@ -8777,7 +8777,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="255" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="255" spans="1:7" x14ac:dyDescent="0.75">
       <c r="A255">
         <v>66</v>
       </c>
@@ -8797,7 +8797,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="256" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="256" spans="1:7" x14ac:dyDescent="0.75">
       <c r="A256">
         <v>66</v>
       </c>
@@ -8817,7 +8817,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="257" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="257" spans="1:7" x14ac:dyDescent="0.75">
       <c r="A257">
         <v>66</v>
       </c>
@@ -8837,7 +8837,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="258" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="258" spans="1:7" x14ac:dyDescent="0.75">
       <c r="A258">
         <v>66</v>
       </c>
@@ -8857,7 +8857,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="259" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="259" spans="1:7" x14ac:dyDescent="0.75">
       <c r="A259">
         <v>66</v>
       </c>
@@ -8877,7 +8877,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="260" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="260" spans="1:7" x14ac:dyDescent="0.75">
       <c r="A260">
         <v>66</v>
       </c>
@@ -8897,7 +8897,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="261" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="261" spans="1:7" x14ac:dyDescent="0.75">
       <c r="A261">
         <v>66</v>
       </c>
@@ -8917,7 +8917,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="262" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="262" spans="1:7" x14ac:dyDescent="0.75">
       <c r="A262">
         <v>67</v>
       </c>
@@ -8937,7 +8937,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="263" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="263" spans="1:7" x14ac:dyDescent="0.75">
       <c r="A263">
         <v>67</v>
       </c>
@@ -8957,7 +8957,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="264" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="264" spans="1:7" x14ac:dyDescent="0.75">
       <c r="A264">
         <v>67</v>
       </c>
@@ -8977,7 +8977,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="265" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="265" spans="1:7" x14ac:dyDescent="0.75">
       <c r="A265">
         <v>67</v>
       </c>
@@ -8997,7 +8997,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="266" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="266" spans="1:7" x14ac:dyDescent="0.75">
       <c r="A266">
         <v>67</v>
       </c>
@@ -9017,7 +9017,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="267" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="267" spans="1:7" x14ac:dyDescent="0.75">
       <c r="A267">
         <v>67</v>
       </c>
@@ -9037,7 +9037,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="268" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="268" spans="1:7" x14ac:dyDescent="0.75">
       <c r="A268">
         <v>67</v>
       </c>
@@ -9057,7 +9057,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="269" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="269" spans="1:7" x14ac:dyDescent="0.75">
       <c r="A269">
         <v>68</v>
       </c>
@@ -9077,7 +9077,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="270" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="270" spans="1:7" x14ac:dyDescent="0.75">
       <c r="A270">
         <v>68</v>
       </c>
@@ -9097,7 +9097,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="271" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="271" spans="1:7" x14ac:dyDescent="0.75">
       <c r="A271">
         <v>68</v>
       </c>
@@ -9117,7 +9117,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="272" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="272" spans="1:7" x14ac:dyDescent="0.75">
       <c r="A272">
         <v>68</v>
       </c>
@@ -9137,7 +9137,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="273" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="273" spans="1:7" x14ac:dyDescent="0.75">
       <c r="A273">
         <v>68</v>
       </c>
@@ -9157,7 +9157,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="274" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="274" spans="1:7" x14ac:dyDescent="0.75">
       <c r="A274">
         <v>68</v>
       </c>
@@ -9177,7 +9177,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="275" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="275" spans="1:7" x14ac:dyDescent="0.75">
       <c r="A275">
         <v>68</v>
       </c>
@@ -9197,7 +9197,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="276" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="276" spans="1:7" x14ac:dyDescent="0.75">
       <c r="A276">
         <v>68</v>
       </c>
@@ -9217,7 +9217,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="277" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="277" spans="1:7" x14ac:dyDescent="0.75">
       <c r="A277">
         <v>68</v>
       </c>
@@ -9237,7 +9237,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="278" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="278" spans="1:7" x14ac:dyDescent="0.75">
       <c r="A278">
         <v>70</v>
       </c>
@@ -9257,7 +9257,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="279" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="279" spans="1:7" x14ac:dyDescent="0.75">
       <c r="A279">
         <v>70</v>
       </c>
@@ -9277,7 +9277,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="280" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="280" spans="1:7" x14ac:dyDescent="0.75">
       <c r="A280">
         <v>70</v>
       </c>
@@ -9297,7 +9297,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="281" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="281" spans="1:7" x14ac:dyDescent="0.75">
       <c r="A281">
         <v>70</v>
       </c>
@@ -9317,7 +9317,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="282" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="282" spans="1:7" x14ac:dyDescent="0.75">
       <c r="A282">
         <v>70</v>
       </c>
@@ -9337,7 +9337,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="283" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="283" spans="1:7" x14ac:dyDescent="0.75">
       <c r="A283">
         <v>70</v>
       </c>
@@ -9357,7 +9357,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="284" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="284" spans="1:7" x14ac:dyDescent="0.75">
       <c r="A284">
         <v>70</v>
       </c>
@@ -9377,7 +9377,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="285" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="285" spans="1:7" x14ac:dyDescent="0.75">
       <c r="A285">
         <v>70</v>
       </c>
@@ -9397,7 +9397,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="286" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="286" spans="1:7" x14ac:dyDescent="0.75">
       <c r="A286">
         <v>71</v>
       </c>
@@ -9417,7 +9417,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="287" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="287" spans="1:7" x14ac:dyDescent="0.75">
       <c r="A287">
         <v>71</v>
       </c>
@@ -9437,7 +9437,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="288" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="288" spans="1:7" x14ac:dyDescent="0.75">
       <c r="A288">
         <v>71</v>
       </c>
@@ -9457,7 +9457,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="289" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="289" spans="1:7" x14ac:dyDescent="0.75">
       <c r="A289">
         <v>71</v>
       </c>
@@ -9477,7 +9477,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="290" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="290" spans="1:7" x14ac:dyDescent="0.75">
       <c r="A290">
         <v>71</v>
       </c>
@@ -9497,7 +9497,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="291" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="291" spans="1:7" x14ac:dyDescent="0.75">
       <c r="A291">
         <v>71</v>
       </c>
@@ -9517,7 +9517,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="292" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="292" spans="1:7" x14ac:dyDescent="0.75">
       <c r="A292">
         <v>71</v>
       </c>
@@ -9537,7 +9537,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="293" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="293" spans="1:7" x14ac:dyDescent="0.75">
       <c r="A293">
         <v>73</v>
       </c>
@@ -9557,7 +9557,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="294" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="294" spans="1:7" x14ac:dyDescent="0.75">
       <c r="A294">
         <v>73</v>
       </c>
@@ -9577,7 +9577,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="295" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="295" spans="1:7" x14ac:dyDescent="0.75">
       <c r="A295">
         <v>73</v>
       </c>
@@ -9597,7 +9597,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="296" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="296" spans="1:7" x14ac:dyDescent="0.75">
       <c r="A296">
         <v>74</v>
       </c>
@@ -9617,7 +9617,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="297" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="297" spans="1:7" x14ac:dyDescent="0.75">
       <c r="A297">
         <v>74</v>
       </c>
@@ -9637,7 +9637,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="298" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="298" spans="1:7" x14ac:dyDescent="0.75">
       <c r="A298">
         <v>74</v>
       </c>
@@ -9657,7 +9657,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="299" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="299" spans="1:7" x14ac:dyDescent="0.75">
       <c r="A299">
         <v>74</v>
       </c>
@@ -9677,7 +9677,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="300" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="300" spans="1:7" x14ac:dyDescent="0.75">
       <c r="A300">
         <v>74</v>
       </c>
@@ -9697,7 +9697,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="301" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="301" spans="1:7" x14ac:dyDescent="0.75">
       <c r="A301">
         <v>74</v>
       </c>
@@ -9717,7 +9717,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="302" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="302" spans="1:7" x14ac:dyDescent="0.75">
       <c r="A302">
         <v>74</v>
       </c>
@@ -9737,7 +9737,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="303" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="303" spans="1:7" x14ac:dyDescent="0.75">
       <c r="A303">
         <v>74</v>
       </c>
@@ -9757,7 +9757,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="304" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="304" spans="1:7" x14ac:dyDescent="0.75">
       <c r="A304">
         <v>74</v>
       </c>
@@ -9777,7 +9777,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="305" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="305" spans="1:7" x14ac:dyDescent="0.75">
       <c r="A305">
         <v>74</v>
       </c>
@@ -9797,7 +9797,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="306" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="306" spans="1:7" x14ac:dyDescent="0.75">
       <c r="A306">
         <v>74</v>
       </c>
@@ -9817,7 +9817,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="307" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="307" spans="1:7" x14ac:dyDescent="0.75">
       <c r="A307">
         <v>74</v>
       </c>
@@ -9837,7 +9837,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="308" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="308" spans="1:7" x14ac:dyDescent="0.75">
       <c r="A308">
         <v>75</v>
       </c>
@@ -9857,7 +9857,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="309" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="309" spans="1:7" x14ac:dyDescent="0.75">
       <c r="A309">
         <v>75</v>
       </c>
@@ -9877,7 +9877,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="310" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="310" spans="1:7" x14ac:dyDescent="0.75">
       <c r="A310">
         <v>75</v>
       </c>
@@ -9897,7 +9897,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="311" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="311" spans="1:7" x14ac:dyDescent="0.75">
       <c r="A311">
         <v>75</v>
       </c>
@@ -9917,7 +9917,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="312" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="312" spans="1:7" x14ac:dyDescent="0.75">
       <c r="A312">
         <v>75</v>
       </c>
@@ -9937,7 +9937,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="313" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="313" spans="1:7" x14ac:dyDescent="0.75">
       <c r="A313">
         <v>75</v>
       </c>
@@ -9957,7 +9957,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="314" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="314" spans="1:7" x14ac:dyDescent="0.75">
       <c r="A314">
         <v>75</v>
       </c>
@@ -9977,7 +9977,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="315" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="315" spans="1:7" x14ac:dyDescent="0.75">
       <c r="A315">
         <v>75</v>
       </c>
@@ -9997,7 +9997,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="316" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="316" spans="1:7" x14ac:dyDescent="0.75">
       <c r="A316">
         <v>75</v>
       </c>
@@ -10017,7 +10017,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="317" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="317" spans="1:7" x14ac:dyDescent="0.75">
       <c r="A317">
         <v>75</v>
       </c>
@@ -10037,7 +10037,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="318" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="318" spans="1:7" x14ac:dyDescent="0.75">
       <c r="A318">
         <v>75</v>
       </c>
@@ -10057,7 +10057,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="319" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="319" spans="1:7" x14ac:dyDescent="0.75">
       <c r="A319">
         <v>75</v>
       </c>
@@ -10077,7 +10077,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="320" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="320" spans="1:7" x14ac:dyDescent="0.75">
       <c r="A320">
         <v>75</v>
       </c>
@@ -10097,7 +10097,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="321" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="321" spans="1:7" x14ac:dyDescent="0.75">
       <c r="A321">
         <v>76</v>
       </c>
@@ -10117,7 +10117,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="322" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="322" spans="1:7" x14ac:dyDescent="0.75">
       <c r="A322">
         <v>76</v>
       </c>
@@ -10137,7 +10137,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="323" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="323" spans="1:7" x14ac:dyDescent="0.75">
       <c r="A323">
         <v>76</v>
       </c>
@@ -10157,7 +10157,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="324" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="324" spans="1:7" x14ac:dyDescent="0.75">
       <c r="A324">
         <v>77</v>
       </c>
@@ -10177,7 +10177,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="325" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="325" spans="1:7" x14ac:dyDescent="0.75">
       <c r="A325">
         <v>77</v>
       </c>
@@ -10197,7 +10197,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="326" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="326" spans="1:7" x14ac:dyDescent="0.75">
       <c r="A326">
         <v>77</v>
       </c>
@@ -10217,7 +10217,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="327" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="327" spans="1:7" x14ac:dyDescent="0.75">
       <c r="A327">
         <v>77</v>
       </c>
@@ -10237,7 +10237,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="328" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="328" spans="1:7" x14ac:dyDescent="0.75">
       <c r="A328">
         <v>77</v>
       </c>
@@ -10257,7 +10257,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="329" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="329" spans="1:7" x14ac:dyDescent="0.75">
       <c r="A329">
         <v>77</v>
       </c>
@@ -10277,7 +10277,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="330" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="330" spans="1:7" x14ac:dyDescent="0.75">
       <c r="A330">
         <v>77</v>
       </c>
@@ -10297,7 +10297,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="331" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="331" spans="1:7" x14ac:dyDescent="0.75">
       <c r="A331">
         <v>77</v>
       </c>
@@ -10317,7 +10317,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="332" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="332" spans="1:7" x14ac:dyDescent="0.75">
       <c r="A332">
         <v>77</v>
       </c>
@@ -10337,7 +10337,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="333" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="333" spans="1:7" x14ac:dyDescent="0.75">
       <c r="A333">
         <v>77</v>
       </c>
@@ -10357,7 +10357,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="334" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="334" spans="1:7" x14ac:dyDescent="0.75">
       <c r="A334">
         <v>77</v>
       </c>
@@ -10377,7 +10377,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="335" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="335" spans="1:7" x14ac:dyDescent="0.75">
       <c r="A335">
         <v>77</v>
       </c>
@@ -10397,7 +10397,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="336" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="336" spans="1:7" x14ac:dyDescent="0.75">
       <c r="A336">
         <v>77</v>
       </c>
@@ -10417,7 +10417,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="337" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="337" spans="1:7" x14ac:dyDescent="0.75">
       <c r="A337">
         <v>77</v>
       </c>
@@ -10437,7 +10437,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="338" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="338" spans="1:7" x14ac:dyDescent="0.75">
       <c r="A338">
         <v>78</v>
       </c>
@@ -10457,7 +10457,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="339" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="339" spans="1:7" x14ac:dyDescent="0.75">
       <c r="A339">
         <v>78</v>
       </c>
@@ -10477,7 +10477,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="340" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="340" spans="1:7" x14ac:dyDescent="0.75">
       <c r="A340">
         <v>78</v>
       </c>
@@ -10497,7 +10497,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="341" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="341" spans="1:7" x14ac:dyDescent="0.75">
       <c r="A341">
         <v>78</v>
       </c>
@@ -10517,7 +10517,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="342" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="342" spans="1:7" x14ac:dyDescent="0.75">
       <c r="A342">
         <v>78</v>
       </c>
@@ -10537,7 +10537,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="343" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="343" spans="1:7" x14ac:dyDescent="0.75">
       <c r="A343">
         <v>78</v>
       </c>
@@ -10557,7 +10557,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="344" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="344" spans="1:7" x14ac:dyDescent="0.75">
       <c r="A344">
         <v>78</v>
       </c>
@@ -10577,7 +10577,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="345" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="345" spans="1:7" x14ac:dyDescent="0.75">
       <c r="A345">
         <v>78</v>
       </c>
@@ -10597,7 +10597,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="346" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="346" spans="1:7" x14ac:dyDescent="0.75">
       <c r="A346">
         <v>78</v>
       </c>
@@ -10617,7 +10617,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="347" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="347" spans="1:7" x14ac:dyDescent="0.75">
       <c r="A347">
         <v>78</v>
       </c>
@@ -10637,7 +10637,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="348" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="348" spans="1:7" x14ac:dyDescent="0.75">
       <c r="A348">
         <v>78</v>
       </c>
@@ -10657,7 +10657,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="349" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="349" spans="1:7" x14ac:dyDescent="0.75">
       <c r="A349">
         <v>79</v>
       </c>
@@ -10677,7 +10677,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="350" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="350" spans="1:7" x14ac:dyDescent="0.75">
       <c r="A350">
         <v>79</v>
       </c>
@@ -10697,7 +10697,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="351" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="351" spans="1:7" x14ac:dyDescent="0.75">
       <c r="A351">
         <v>79</v>
       </c>
@@ -10717,7 +10717,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="352" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="352" spans="1:7" x14ac:dyDescent="0.75">
       <c r="A352">
         <v>79</v>
       </c>
@@ -10737,7 +10737,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="353" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="353" spans="1:7" x14ac:dyDescent="0.75">
       <c r="A353">
         <v>79</v>
       </c>
@@ -10757,7 +10757,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="354" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="354" spans="1:7" x14ac:dyDescent="0.75">
       <c r="A354">
         <v>79</v>
       </c>
@@ -10777,7 +10777,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="355" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="355" spans="1:7" x14ac:dyDescent="0.75">
       <c r="A355">
         <v>79</v>
       </c>
@@ -10797,7 +10797,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="356" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="356" spans="1:7" x14ac:dyDescent="0.75">
       <c r="A356">
         <v>79</v>
       </c>
@@ -10817,7 +10817,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="357" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="357" spans="1:7" x14ac:dyDescent="0.75">
       <c r="A357">
         <v>79</v>
       </c>
@@ -10837,7 +10837,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="358" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="358" spans="1:7" x14ac:dyDescent="0.75">
       <c r="A358">
         <v>79</v>
       </c>
@@ -10857,7 +10857,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="359" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="359" spans="1:7" x14ac:dyDescent="0.75">
       <c r="A359">
         <v>79</v>
       </c>
@@ -10877,7 +10877,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="360" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="360" spans="1:7" x14ac:dyDescent="0.75">
       <c r="A360">
         <v>80</v>
       </c>
@@ -10897,7 +10897,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="361" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="361" spans="1:7" x14ac:dyDescent="0.75">
       <c r="A361">
         <v>80</v>
       </c>
@@ -10917,7 +10917,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="362" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="362" spans="1:7" x14ac:dyDescent="0.75">
       <c r="A362">
         <v>80</v>
       </c>
@@ -10937,7 +10937,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="363" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="363" spans="1:7" x14ac:dyDescent="0.75">
       <c r="A363">
         <v>80</v>
       </c>
@@ -10957,7 +10957,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="364" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="364" spans="1:7" x14ac:dyDescent="0.75">
       <c r="A364">
         <v>80</v>
       </c>
@@ -10977,7 +10977,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="365" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="365" spans="1:7" x14ac:dyDescent="0.75">
       <c r="A365">
         <v>80</v>
       </c>
@@ -10997,7 +10997,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="366" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="366" spans="1:7" x14ac:dyDescent="0.75">
       <c r="A366">
         <v>80</v>
       </c>
@@ -11017,7 +11017,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="367" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="367" spans="1:7" x14ac:dyDescent="0.75">
       <c r="A367">
         <v>80</v>
       </c>
@@ -11037,7 +11037,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="368" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="368" spans="1:7" x14ac:dyDescent="0.75">
       <c r="A368">
         <v>80</v>
       </c>
@@ -11057,7 +11057,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="369" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="369" spans="1:7" x14ac:dyDescent="0.75">
       <c r="A369">
         <v>80</v>
       </c>
@@ -11077,7 +11077,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="370" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="370" spans="1:7" x14ac:dyDescent="0.75">
       <c r="A370">
         <v>80</v>
       </c>
@@ -11097,7 +11097,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="371" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="371" spans="1:7" x14ac:dyDescent="0.75">
       <c r="A371">
         <v>80</v>
       </c>
@@ -11117,7 +11117,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="372" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="372" spans="1:7" x14ac:dyDescent="0.75">
       <c r="A372">
         <v>81</v>
       </c>
@@ -11137,7 +11137,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="373" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="373" spans="1:7" x14ac:dyDescent="0.75">
       <c r="A373">
         <v>81</v>
       </c>
@@ -11157,7 +11157,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="374" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="374" spans="1:7" x14ac:dyDescent="0.75">
       <c r="A374">
         <v>81</v>
       </c>
@@ -11177,7 +11177,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="375" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="375" spans="1:7" x14ac:dyDescent="0.75">
       <c r="A375">
         <v>81</v>
       </c>
@@ -11197,7 +11197,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="376" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="376" spans="1:7" x14ac:dyDescent="0.75">
       <c r="A376">
         <v>81</v>
       </c>
@@ -11217,7 +11217,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="377" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="377" spans="1:7" x14ac:dyDescent="0.75">
       <c r="A377">
         <v>82</v>
       </c>
@@ -11237,7 +11237,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="378" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="378" spans="1:7" x14ac:dyDescent="0.75">
       <c r="A378">
         <v>82</v>
       </c>
@@ -11257,7 +11257,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="379" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="379" spans="1:7" x14ac:dyDescent="0.75">
       <c r="A379">
         <v>82</v>
       </c>
@@ -11277,7 +11277,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="380" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="380" spans="1:7" x14ac:dyDescent="0.75">
       <c r="A380">
         <v>82</v>
       </c>
@@ -11297,7 +11297,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="381" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="381" spans="1:7" x14ac:dyDescent="0.75">
       <c r="A381">
         <v>82</v>
       </c>
@@ -11317,7 +11317,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="382" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="382" spans="1:7" x14ac:dyDescent="0.75">
       <c r="A382">
         <v>82</v>
       </c>
@@ -11337,7 +11337,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="383" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="383" spans="1:7" x14ac:dyDescent="0.75">
       <c r="A383">
         <v>82</v>
       </c>
@@ -11357,7 +11357,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="384" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="384" spans="1:7" x14ac:dyDescent="0.75">
       <c r="A384">
         <v>83</v>
       </c>
@@ -11377,7 +11377,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="385" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="385" spans="1:7" x14ac:dyDescent="0.75">
       <c r="A385">
         <v>83</v>
       </c>
@@ -11397,7 +11397,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="386" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="386" spans="1:7" x14ac:dyDescent="0.75">
       <c r="A386">
         <v>83</v>
       </c>
@@ -11417,7 +11417,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="387" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="387" spans="1:7" x14ac:dyDescent="0.75">
       <c r="A387">
         <v>83</v>
       </c>
@@ -11437,7 +11437,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="388" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="388" spans="1:7" x14ac:dyDescent="0.75">
       <c r="A388">
         <v>83</v>
       </c>
@@ -11457,7 +11457,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="389" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="389" spans="1:7" x14ac:dyDescent="0.75">
       <c r="A389">
         <v>84</v>
       </c>
@@ -11477,7 +11477,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="390" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="390" spans="1:7" x14ac:dyDescent="0.75">
       <c r="A390">
         <v>84</v>
       </c>
@@ -11497,7 +11497,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="391" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="391" spans="1:7" x14ac:dyDescent="0.75">
       <c r="A391">
         <v>84</v>
       </c>
@@ -11517,7 +11517,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="392" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="392" spans="1:7" x14ac:dyDescent="0.75">
       <c r="A392">
         <v>84</v>
       </c>
@@ -11537,7 +11537,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="393" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="393" spans="1:7" x14ac:dyDescent="0.75">
       <c r="A393">
         <v>84</v>
       </c>
@@ -11557,7 +11557,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="394" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="394" spans="1:7" x14ac:dyDescent="0.75">
       <c r="A394">
         <v>84</v>
       </c>
@@ -11577,7 +11577,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="395" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="395" spans="1:7" x14ac:dyDescent="0.75">
       <c r="A395">
         <v>84</v>
       </c>
@@ -11597,7 +11597,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="396" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="396" spans="1:7" x14ac:dyDescent="0.75">
       <c r="A396">
         <v>84</v>
       </c>
@@ -11617,7 +11617,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="397" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="397" spans="1:7" x14ac:dyDescent="0.75">
       <c r="A397">
         <v>85</v>
       </c>
@@ -11637,7 +11637,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="398" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="398" spans="1:7" x14ac:dyDescent="0.75">
       <c r="A398">
         <v>85</v>
       </c>
@@ -11657,7 +11657,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="399" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="399" spans="1:7" x14ac:dyDescent="0.75">
       <c r="A399">
         <v>85</v>
       </c>
@@ -11677,7 +11677,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="400" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="400" spans="1:7" x14ac:dyDescent="0.75">
       <c r="A400">
         <v>87</v>
       </c>
@@ -11697,7 +11697,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="401" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="401" spans="1:7" x14ac:dyDescent="0.75">
       <c r="A401">
         <v>87</v>
       </c>
@@ -11717,7 +11717,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="402" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="402" spans="1:7" x14ac:dyDescent="0.75">
       <c r="A402">
         <v>87</v>
       </c>
@@ -11737,7 +11737,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="403" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="403" spans="1:7" x14ac:dyDescent="0.75">
       <c r="A403">
         <v>87</v>
       </c>
@@ -11757,7 +11757,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="404" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="404" spans="1:7" x14ac:dyDescent="0.75">
       <c r="A404">
         <v>87</v>
       </c>
@@ -11777,7 +11777,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="405" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="405" spans="1:7" x14ac:dyDescent="0.75">
       <c r="A405">
         <v>87</v>
       </c>
@@ -11797,7 +11797,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="406" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="406" spans="1:7" x14ac:dyDescent="0.75">
       <c r="A406">
         <v>87</v>
       </c>
@@ -11817,7 +11817,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="407" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="407" spans="1:7" x14ac:dyDescent="0.75">
       <c r="A407">
         <v>87</v>
       </c>
@@ -11837,7 +11837,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="408" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="408" spans="1:7" x14ac:dyDescent="0.75">
       <c r="A408">
         <v>87</v>
       </c>
@@ -11857,7 +11857,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="409" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="409" spans="1:7" x14ac:dyDescent="0.75">
       <c r="A409">
         <v>87</v>
       </c>
@@ -11877,7 +11877,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="410" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="410" spans="1:7" x14ac:dyDescent="0.75">
       <c r="A410">
         <v>87</v>
       </c>
@@ -11897,7 +11897,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="411" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="411" spans="1:7" x14ac:dyDescent="0.75">
       <c r="A411">
         <v>87</v>
       </c>
@@ -11917,7 +11917,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="412" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="412" spans="1:7" x14ac:dyDescent="0.75">
       <c r="A412">
         <v>87</v>
       </c>
@@ -11937,7 +11937,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="413" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="413" spans="1:7" x14ac:dyDescent="0.75">
       <c r="A413">
         <v>87</v>
       </c>
@@ -11957,7 +11957,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="414" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="414" spans="1:7" x14ac:dyDescent="0.75">
       <c r="A414">
         <v>87</v>
       </c>
@@ -11977,7 +11977,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="415" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="415" spans="1:7" x14ac:dyDescent="0.75">
       <c r="A415">
         <v>88</v>
       </c>
@@ -11997,7 +11997,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="416" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="416" spans="1:7" x14ac:dyDescent="0.75">
       <c r="A416">
         <v>88</v>
       </c>
@@ -12017,7 +12017,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="417" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="417" spans="1:7" x14ac:dyDescent="0.75">
       <c r="A417">
         <v>88</v>
       </c>
@@ -12037,7 +12037,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="418" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="418" spans="1:7" x14ac:dyDescent="0.75">
       <c r="A418">
         <v>88</v>
       </c>
@@ -12057,7 +12057,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="419" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="419" spans="1:7" x14ac:dyDescent="0.75">
       <c r="A419">
         <v>88</v>
       </c>
@@ -12077,7 +12077,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="420" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="420" spans="1:7" x14ac:dyDescent="0.75">
       <c r="A420">
         <v>88</v>
       </c>
@@ -12097,7 +12097,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="421" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="421" spans="1:7" x14ac:dyDescent="0.75">
       <c r="A421">
         <v>88</v>
       </c>
@@ -12117,7 +12117,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="422" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="422" spans="1:7" x14ac:dyDescent="0.75">
       <c r="A422">
         <v>88</v>
       </c>
@@ -12137,7 +12137,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="423" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="423" spans="1:7" x14ac:dyDescent="0.75">
       <c r="A423">
         <v>88</v>
       </c>
@@ -12157,7 +12157,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="424" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="424" spans="1:7" x14ac:dyDescent="0.75">
       <c r="A424">
         <v>88</v>
       </c>
@@ -12177,7 +12177,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="425" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="425" spans="1:7" x14ac:dyDescent="0.75">
       <c r="A425">
         <v>88</v>
       </c>
@@ -12197,7 +12197,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="426" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="426" spans="1:7" x14ac:dyDescent="0.75">
       <c r="A426">
         <v>88</v>
       </c>
@@ -12217,7 +12217,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="427" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="427" spans="1:7" x14ac:dyDescent="0.75">
       <c r="A427">
         <v>88</v>
       </c>
@@ -12237,7 +12237,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="428" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="428" spans="1:7" x14ac:dyDescent="0.75">
       <c r="A428">
         <v>89</v>
       </c>
@@ -12257,7 +12257,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="429" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="429" spans="1:7" x14ac:dyDescent="0.75">
       <c r="A429">
         <v>89</v>
       </c>
@@ -12277,7 +12277,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="430" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="430" spans="1:7" x14ac:dyDescent="0.75">
       <c r="A430">
         <v>89</v>
       </c>
@@ -12297,7 +12297,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="431" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="431" spans="1:7" x14ac:dyDescent="0.75">
       <c r="A431">
         <v>89</v>
       </c>
@@ -12317,7 +12317,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="432" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="432" spans="1:7" x14ac:dyDescent="0.75">
       <c r="A432">
         <v>89</v>
       </c>
@@ -12337,7 +12337,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="433" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="433" spans="1:7" x14ac:dyDescent="0.75">
       <c r="A433">
         <v>89</v>
       </c>
@@ -12357,7 +12357,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="434" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="434" spans="1:7" x14ac:dyDescent="0.75">
       <c r="A434">
         <v>89</v>
       </c>
@@ -12377,7 +12377,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="435" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="435" spans="1:7" x14ac:dyDescent="0.75">
       <c r="A435">
         <v>89</v>
       </c>
@@ -12397,7 +12397,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="436" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="436" spans="1:7" x14ac:dyDescent="0.75">
       <c r="A436">
         <v>90</v>
       </c>
@@ -12417,7 +12417,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="437" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="437" spans="1:7" x14ac:dyDescent="0.75">
       <c r="A437">
         <v>90</v>
       </c>
@@ -12437,7 +12437,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="438" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="438" spans="1:7" x14ac:dyDescent="0.75">
       <c r="A438">
         <v>90</v>
       </c>
@@ -12457,7 +12457,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="439" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="439" spans="1:7" x14ac:dyDescent="0.75">
       <c r="A439">
         <v>90</v>
       </c>
@@ -12477,7 +12477,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="440" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="440" spans="1:7" x14ac:dyDescent="0.75">
       <c r="A440">
         <v>90</v>
       </c>
@@ -12497,7 +12497,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="441" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="441" spans="1:7" x14ac:dyDescent="0.75">
       <c r="A441">
         <v>90</v>
       </c>
@@ -12517,7 +12517,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="442" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="442" spans="1:7" x14ac:dyDescent="0.75">
       <c r="A442">
         <v>90</v>
       </c>
@@ -12537,7 +12537,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="443" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="443" spans="1:7" x14ac:dyDescent="0.75">
       <c r="A443">
         <v>92</v>
       </c>
@@ -12557,7 +12557,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="444" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="444" spans="1:7" x14ac:dyDescent="0.75">
       <c r="A444">
         <v>92</v>
       </c>
@@ -12577,7 +12577,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="445" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="445" spans="1:7" x14ac:dyDescent="0.75">
       <c r="A445">
         <v>92</v>
       </c>
@@ -12597,7 +12597,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="446" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="446" spans="1:7" x14ac:dyDescent="0.75">
       <c r="A446">
         <v>92</v>
       </c>
@@ -12617,7 +12617,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="447" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="447" spans="1:7" x14ac:dyDescent="0.75">
       <c r="A447">
         <v>92</v>
       </c>
@@ -12637,7 +12637,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="448" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="448" spans="1:7" x14ac:dyDescent="0.75">
       <c r="A448">
         <v>92</v>
       </c>
@@ -12657,7 +12657,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="449" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="449" spans="1:7" x14ac:dyDescent="0.75">
       <c r="A449">
         <v>6</v>
       </c>
@@ -12677,7 +12677,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="450" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="450" spans="1:7" x14ac:dyDescent="0.75">
       <c r="A450">
         <v>6</v>
       </c>
@@ -12697,7 +12697,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="451" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="451" spans="1:7" x14ac:dyDescent="0.75">
       <c r="A451">
         <v>6</v>
       </c>
@@ -12717,7 +12717,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="452" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="452" spans="1:7" x14ac:dyDescent="0.75">
       <c r="A452">
         <v>6</v>
       </c>
@@ -12737,7 +12737,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="453" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="453" spans="1:7" x14ac:dyDescent="0.75">
       <c r="A453">
         <v>6</v>
       </c>
@@ -12757,7 +12757,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="454" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="454" spans="1:7" x14ac:dyDescent="0.75">
       <c r="A454">
         <v>11</v>
       </c>
@@ -12777,7 +12777,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="455" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="455" spans="1:7" x14ac:dyDescent="0.75">
       <c r="A455">
         <v>11</v>
       </c>
@@ -12797,7 +12797,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="456" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="456" spans="1:7" x14ac:dyDescent="0.75">
       <c r="A456">
         <v>11</v>
       </c>
@@ -12817,7 +12817,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="457" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="457" spans="1:7" x14ac:dyDescent="0.75">
       <c r="A457">
         <v>46</v>
       </c>
@@ -12837,7 +12837,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="458" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="458" spans="1:7" x14ac:dyDescent="0.75">
       <c r="A458">
         <v>46</v>
       </c>
@@ -12857,7 +12857,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="459" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="459" spans="1:7" x14ac:dyDescent="0.75">
       <c r="A459">
         <v>46</v>
       </c>
@@ -12877,7 +12877,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="460" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="460" spans="1:7" x14ac:dyDescent="0.75">
       <c r="A460">
         <v>46</v>
       </c>
@@ -12897,7 +12897,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="461" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="461" spans="1:7" x14ac:dyDescent="0.75">
       <c r="A461">
         <v>46</v>
       </c>
@@ -12917,7 +12917,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="462" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="462" spans="1:7" x14ac:dyDescent="0.75">
       <c r="A462">
         <v>46</v>
       </c>
@@ -12937,7 +12937,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="463" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="463" spans="1:7" x14ac:dyDescent="0.75">
       <c r="A463">
         <v>56</v>
       </c>
@@ -12957,7 +12957,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="464" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="464" spans="1:7" x14ac:dyDescent="0.75">
       <c r="A464">
         <v>56</v>
       </c>
@@ -12977,7 +12977,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="465" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="465" spans="1:7" x14ac:dyDescent="0.75">
       <c r="A465">
         <v>56</v>
       </c>
@@ -12997,7 +12997,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="466" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="466" spans="1:7" x14ac:dyDescent="0.75">
       <c r="A466">
         <v>56</v>
       </c>
@@ -13017,7 +13017,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="467" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="467" spans="1:7" x14ac:dyDescent="0.75">
       <c r="A467">
         <v>56</v>
       </c>
@@ -13037,7 +13037,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="468" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="468" spans="1:7" x14ac:dyDescent="0.75">
       <c r="A468">
         <v>56</v>
       </c>
@@ -13057,7 +13057,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="469" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="469" spans="1:7" x14ac:dyDescent="0.75">
       <c r="A469">
         <v>56</v>
       </c>
@@ -13077,7 +13077,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="470" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="470" spans="1:7" x14ac:dyDescent="0.75">
       <c r="A470">
         <v>56</v>
       </c>
@@ -13097,7 +13097,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="471" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="471" spans="1:7" x14ac:dyDescent="0.75">
       <c r="A471">
         <v>57</v>
       </c>
@@ -13117,7 +13117,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="472" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="472" spans="1:7" x14ac:dyDescent="0.75">
       <c r="A472">
         <v>57</v>
       </c>
@@ -13137,7 +13137,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="473" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="473" spans="1:7" x14ac:dyDescent="0.75">
       <c r="A473">
         <v>57</v>
       </c>
@@ -13157,7 +13157,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="474" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="474" spans="1:7" x14ac:dyDescent="0.75">
       <c r="A474">
         <v>69</v>
       </c>
@@ -13177,7 +13177,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="475" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="475" spans="1:7" x14ac:dyDescent="0.75">
       <c r="A475">
         <v>69</v>
       </c>
@@ -13197,7 +13197,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="476" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="476" spans="1:7" x14ac:dyDescent="0.75">
       <c r="A476">
         <v>69</v>
       </c>
@@ -13217,7 +13217,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="477" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="477" spans="1:7" x14ac:dyDescent="0.75">
       <c r="A477">
         <v>69</v>
       </c>
@@ -13237,7 +13237,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="478" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="478" spans="1:7" x14ac:dyDescent="0.75">
       <c r="A478">
         <v>69</v>
       </c>
@@ -13257,7 +13257,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="479" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="479" spans="1:7" x14ac:dyDescent="0.75">
       <c r="A479">
         <v>69</v>
       </c>
@@ -13277,7 +13277,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="480" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="480" spans="1:7" x14ac:dyDescent="0.75">
       <c r="A480">
         <v>69</v>
       </c>
@@ -13297,7 +13297,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="481" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="481" spans="1:7" x14ac:dyDescent="0.75">
       <c r="A481">
         <v>14</v>
       </c>
@@ -13317,7 +13317,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="482" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="482" spans="1:7" x14ac:dyDescent="0.75">
       <c r="A482">
         <v>14</v>
       </c>
@@ -13337,7 +13337,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="483" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="483" spans="1:7" x14ac:dyDescent="0.75">
       <c r="A483">
         <v>14</v>
       </c>
@@ -13357,7 +13357,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="484" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="484" spans="1:7" x14ac:dyDescent="0.75">
       <c r="A484">
         <v>14</v>
       </c>
@@ -13377,7 +13377,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="485" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="485" spans="1:7" x14ac:dyDescent="0.75">
       <c r="A485">
         <v>14</v>
       </c>
@@ -13397,7 +13397,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="486" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="486" spans="1:7" x14ac:dyDescent="0.75">
       <c r="A486">
         <v>14</v>
       </c>
@@ -13417,7 +13417,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="487" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="487" spans="1:7" x14ac:dyDescent="0.75">
       <c r="A487">
         <v>28</v>
       </c>
@@ -13437,7 +13437,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="488" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="488" spans="1:7" x14ac:dyDescent="0.75">
       <c r="A488">
         <v>28</v>
       </c>
@@ -13457,7 +13457,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="489" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="489" spans="1:7" x14ac:dyDescent="0.75">
       <c r="A489">
         <v>60</v>
       </c>
@@ -13477,7 +13477,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="490" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="490" spans="1:7" x14ac:dyDescent="0.75">
       <c r="A490">
         <v>60</v>
       </c>
@@ -13497,7 +13497,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="491" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="491" spans="1:7" x14ac:dyDescent="0.75">
       <c r="A491">
         <v>60</v>
       </c>
@@ -13517,7 +13517,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="492" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="492" spans="1:7" x14ac:dyDescent="0.75">
       <c r="A492">
         <v>60</v>
       </c>
@@ -13537,7 +13537,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="493" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="493" spans="1:7" x14ac:dyDescent="0.75">
       <c r="A493">
         <v>60</v>
       </c>
@@ -13557,7 +13557,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="494" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="494" spans="1:7" x14ac:dyDescent="0.75">
       <c r="A494">
         <v>86</v>
       </c>
@@ -13577,7 +13577,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="495" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="495" spans="1:7" x14ac:dyDescent="0.75">
       <c r="A495">
         <v>86</v>
       </c>
@@ -13597,7 +13597,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="496" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="496" spans="1:7" x14ac:dyDescent="0.75">
       <c r="A496">
         <v>86</v>
       </c>
@@ -13617,7 +13617,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="497" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="497" spans="1:7" x14ac:dyDescent="0.75">
       <c r="A497">
         <v>86</v>
       </c>
@@ -13637,7 +13637,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="498" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="498" spans="1:7" x14ac:dyDescent="0.75">
       <c r="A498">
         <v>86</v>
       </c>
@@ -13657,7 +13657,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="499" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="499" spans="1:7" x14ac:dyDescent="0.75">
       <c r="A499">
         <v>91</v>
       </c>
@@ -13677,7 +13677,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="500" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="500" spans="1:7" x14ac:dyDescent="0.75">
       <c r="A500">
         <v>91</v>
       </c>
@@ -13697,7 +13697,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="501" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="501" spans="1:7" x14ac:dyDescent="0.75">
       <c r="A501">
         <v>91</v>
       </c>
@@ -13717,7 +13717,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="502" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="502" spans="1:7" x14ac:dyDescent="0.75">
       <c r="A502">
         <v>91</v>
       </c>
@@ -13737,7 +13737,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="503" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="503" spans="1:7" x14ac:dyDescent="0.75">
       <c r="A503">
         <v>91</v>
       </c>
@@ -13757,7 +13757,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="504" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="504" spans="1:7" x14ac:dyDescent="0.75">
       <c r="A504">
         <v>91</v>
       </c>
@@ -13777,7 +13777,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="505" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="505" spans="1:7" x14ac:dyDescent="0.75">
       <c r="A505">
         <v>91</v>
       </c>
@@ -13797,7 +13797,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="506" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="506" spans="1:7" x14ac:dyDescent="0.75">
       <c r="A506">
         <v>91</v>
       </c>
@@ -13817,7 +13817,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="507" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="507" spans="1:7" x14ac:dyDescent="0.75">
       <c r="A507">
         <v>91</v>
       </c>
@@ -13837,7 +13837,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="508" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="508" spans="1:7" x14ac:dyDescent="0.75">
       <c r="A508">
         <v>91</v>
       </c>
@@ -13857,7 +13857,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="509" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="509" spans="1:7" x14ac:dyDescent="0.75">
       <c r="A509">
         <v>91</v>
       </c>
@@ -13877,7 +13877,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="510" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="510" spans="1:7" x14ac:dyDescent="0.75">
       <c r="A510">
         <v>91</v>
       </c>
@@ -13897,7 +13897,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="511" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="511" spans="1:7" x14ac:dyDescent="0.75">
       <c r="A511">
         <v>91</v>
       </c>
@@ -13917,7 +13917,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="512" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="512" spans="1:7" x14ac:dyDescent="0.75">
       <c r="A512">
         <v>91</v>
       </c>
@@ -13937,7 +13937,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="513" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="513" spans="1:7" x14ac:dyDescent="0.75">
       <c r="A513">
         <v>91</v>
       </c>
@@ -13957,7 +13957,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="514" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="514" spans="1:7" x14ac:dyDescent="0.75">
       <c r="A514">
         <v>91</v>
       </c>
@@ -13977,7 +13977,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="515" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="515" spans="1:7" x14ac:dyDescent="0.75">
       <c r="A515">
         <v>91</v>
       </c>
@@ -13997,7 +13997,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="516" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="516" spans="1:7" x14ac:dyDescent="0.75">
       <c r="A516">
         <v>91</v>
       </c>
@@ -14017,7 +14017,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="517" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="517" spans="1:7" x14ac:dyDescent="0.75">
       <c r="A517">
         <v>91</v>
       </c>
@@ -14037,7 +14037,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="518" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="518" spans="1:7" x14ac:dyDescent="0.75">
       <c r="A518">
         <v>91</v>
       </c>
@@ -14057,7 +14057,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="519" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="519" spans="1:7" x14ac:dyDescent="0.75">
       <c r="A519">
         <v>91</v>
       </c>
@@ -14077,7 +14077,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="520" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="520" spans="1:7" x14ac:dyDescent="0.75">
       <c r="A520">
         <v>91</v>
       </c>
@@ -14097,7 +14097,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="521" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="521" spans="1:7" x14ac:dyDescent="0.75">
       <c r="A521">
         <v>91</v>
       </c>
@@ -14117,7 +14117,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="522" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="522" spans="1:7" x14ac:dyDescent="0.75">
       <c r="A522">
         <v>91</v>
       </c>
@@ -14137,7 +14137,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="523" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="523" spans="1:7" x14ac:dyDescent="0.75">
       <c r="A523">
         <v>91</v>
       </c>
@@ -14157,7 +14157,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="524" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="524" spans="1:7" x14ac:dyDescent="0.75">
       <c r="A524">
         <v>91</v>
       </c>
@@ -14177,7 +14177,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="525" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="525" spans="1:7" x14ac:dyDescent="0.75">
       <c r="A525">
         <v>91</v>
       </c>
@@ -14197,7 +14197,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="526" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="526" spans="1:7" x14ac:dyDescent="0.75">
       <c r="A526">
         <v>91</v>
       </c>
@@ -14217,7 +14217,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="527" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="527" spans="1:7" x14ac:dyDescent="0.75">
       <c r="A527">
         <v>91</v>
       </c>
@@ -14237,7 +14237,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="528" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="528" spans="1:7" x14ac:dyDescent="0.75">
       <c r="A528">
         <v>93</v>
       </c>
@@ -14257,7 +14257,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="529" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="529" spans="1:7" x14ac:dyDescent="0.75">
       <c r="A529">
         <v>93</v>
       </c>
@@ -14277,7 +14277,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="530" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="530" spans="1:7" x14ac:dyDescent="0.75">
       <c r="A530">
         <v>93</v>
       </c>
@@ -14297,7 +14297,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="531" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="531" spans="1:7" x14ac:dyDescent="0.75">
       <c r="A531">
         <v>8</v>
       </c>
@@ -14317,7 +14317,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="532" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="532" spans="1:7" x14ac:dyDescent="0.75">
       <c r="A532">
         <v>10</v>
       </c>
@@ -14337,7 +14337,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="533" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="533" spans="1:7" x14ac:dyDescent="0.75">
       <c r="A533">
         <v>10</v>
       </c>
@@ -14357,7 +14357,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="534" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="534" spans="1:7" x14ac:dyDescent="0.75">
       <c r="A534">
         <v>10</v>
       </c>
@@ -14377,7 +14377,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="535" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="535" spans="1:7" x14ac:dyDescent="0.75">
       <c r="A535">
         <v>10</v>
       </c>
@@ -14397,7 +14397,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="536" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="536" spans="1:7" x14ac:dyDescent="0.75">
       <c r="A536">
         <v>29</v>
       </c>
@@ -14420,7 +14420,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="537" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="537" spans="1:7" x14ac:dyDescent="0.75">
       <c r="A537">
         <v>29</v>
       </c>
@@ -14436,11 +14436,14 @@
       <c r="E537">
         <v>17</v>
       </c>
+      <c r="F537" t="s">
+        <v>855</v>
+      </c>
       <c r="G537" t="b">
         <v>1</v>
       </c>
     </row>
-    <row r="538" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="538" spans="1:7" x14ac:dyDescent="0.75">
       <c r="A538">
         <v>29</v>
       </c>
@@ -14456,11 +14459,14 @@
       <c r="E538">
         <v>18</v>
       </c>
+      <c r="F538" t="s">
+        <v>855</v>
+      </c>
       <c r="G538" t="b">
         <v>1</v>
       </c>
     </row>
-    <row r="539" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="539" spans="1:7" x14ac:dyDescent="0.75">
       <c r="A539">
         <v>29</v>
       </c>
@@ -14476,11 +14482,14 @@
       <c r="E539">
         <v>19</v>
       </c>
+      <c r="F539" t="s">
+        <v>855</v>
+      </c>
       <c r="G539" t="b">
         <v>1</v>
       </c>
     </row>
-    <row r="540" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="540" spans="1:7" x14ac:dyDescent="0.75">
       <c r="A540">
         <v>29</v>
       </c>
@@ -14496,11 +14505,14 @@
       <c r="E540">
         <v>20</v>
       </c>
+      <c r="F540" t="s">
+        <v>855</v>
+      </c>
       <c r="G540" t="b">
         <v>1</v>
       </c>
     </row>
-    <row r="541" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="541" spans="1:7" x14ac:dyDescent="0.75">
       <c r="A541">
         <v>29</v>
       </c>
@@ -14516,11 +14528,14 @@
       <c r="E541">
         <v>21</v>
       </c>
+      <c r="F541" t="s">
+        <v>855</v>
+      </c>
       <c r="G541" t="b">
         <v>1</v>
       </c>
     </row>
-    <row r="542" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="542" spans="1:7" x14ac:dyDescent="0.75">
       <c r="A542">
         <v>29</v>
       </c>
@@ -14536,11 +14551,14 @@
       <c r="E542">
         <v>22</v>
       </c>
+      <c r="F542" t="s">
+        <v>855</v>
+      </c>
       <c r="G542" t="b">
         <v>1</v>
       </c>
     </row>
-    <row r="543" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="543" spans="1:7" x14ac:dyDescent="0.75">
       <c r="A543">
         <v>29</v>
       </c>
@@ -14556,11 +14574,14 @@
       <c r="E543">
         <v>23</v>
       </c>
+      <c r="F543" t="s">
+        <v>855</v>
+      </c>
       <c r="G543" t="b">
         <v>1</v>
       </c>
     </row>
-    <row r="544" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="544" spans="1:7" x14ac:dyDescent="0.75">
       <c r="A544">
         <v>29</v>
       </c>
@@ -14576,11 +14597,14 @@
       <c r="E544">
         <v>24</v>
       </c>
+      <c r="F544" t="s">
+        <v>855</v>
+      </c>
       <c r="G544" t="b">
         <v>1</v>
       </c>
     </row>
-    <row r="545" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="545" spans="1:7" x14ac:dyDescent="0.75">
       <c r="A545">
         <v>29</v>
       </c>
@@ -14596,11 +14620,14 @@
       <c r="E545">
         <v>25</v>
       </c>
+      <c r="F545" t="s">
+        <v>855</v>
+      </c>
       <c r="G545" t="b">
         <v>1</v>
       </c>
     </row>
-    <row r="546" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="546" spans="1:7" x14ac:dyDescent="0.75">
       <c r="A546">
         <v>29</v>
       </c>
@@ -14616,11 +14643,14 @@
       <c r="E546">
         <v>26</v>
       </c>
+      <c r="F546" t="s">
+        <v>855</v>
+      </c>
       <c r="G546" t="b">
         <v>1</v>
       </c>
     </row>
-    <row r="547" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="547" spans="1:7" x14ac:dyDescent="0.75">
       <c r="A547">
         <v>29</v>
       </c>
@@ -14636,11 +14666,14 @@
       <c r="E547">
         <v>27</v>
       </c>
+      <c r="F547" t="s">
+        <v>855</v>
+      </c>
       <c r="G547" t="b">
         <v>1</v>
       </c>
     </row>
-    <row r="548" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="548" spans="1:7" x14ac:dyDescent="0.75">
       <c r="A548">
         <v>29</v>
       </c>
@@ -14656,11 +14689,14 @@
       <c r="E548">
         <v>28</v>
       </c>
+      <c r="F548" t="s">
+        <v>855</v>
+      </c>
       <c r="G548" t="b">
         <v>1</v>
       </c>
     </row>
-    <row r="549" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="549" spans="1:7" x14ac:dyDescent="0.75">
       <c r="A549">
         <v>29</v>
       </c>
@@ -14676,11 +14712,14 @@
       <c r="E549">
         <v>29</v>
       </c>
+      <c r="F549" t="s">
+        <v>855</v>
+      </c>
       <c r="G549" t="b">
         <v>1</v>
       </c>
     </row>
-    <row r="550" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="550" spans="1:7" x14ac:dyDescent="0.75">
       <c r="A550">
         <v>29</v>
       </c>
@@ -14696,11 +14735,14 @@
       <c r="E550">
         <v>30</v>
       </c>
+      <c r="F550" t="s">
+        <v>855</v>
+      </c>
       <c r="G550" t="b">
         <v>1</v>
       </c>
     </row>
-    <row r="551" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="551" spans="1:7" x14ac:dyDescent="0.75">
       <c r="A551">
         <v>29</v>
       </c>
@@ -14716,11 +14758,14 @@
       <c r="E551">
         <v>31</v>
       </c>
+      <c r="F551" t="s">
+        <v>855</v>
+      </c>
       <c r="G551" t="b">
         <v>1</v>
       </c>
     </row>
-    <row r="552" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="552" spans="1:7" x14ac:dyDescent="0.75">
       <c r="A552">
         <v>29</v>
       </c>
@@ -14736,11 +14781,14 @@
       <c r="E552">
         <v>32</v>
       </c>
+      <c r="F552" t="s">
+        <v>855</v>
+      </c>
       <c r="G552" t="b">
         <v>1</v>
       </c>
     </row>
-    <row r="553" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="553" spans="1:7" x14ac:dyDescent="0.75">
       <c r="A553">
         <v>29</v>
       </c>
@@ -14756,11 +14804,14 @@
       <c r="E553">
         <v>33</v>
       </c>
+      <c r="F553" t="s">
+        <v>855</v>
+      </c>
       <c r="G553" t="b">
         <v>1</v>
       </c>
     </row>
-    <row r="554" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="554" spans="1:7" x14ac:dyDescent="0.75">
       <c r="A554">
         <v>29</v>
       </c>
@@ -14776,11 +14827,14 @@
       <c r="E554">
         <v>34</v>
       </c>
+      <c r="F554" t="s">
+        <v>855</v>
+      </c>
       <c r="G554" t="b">
         <v>1</v>
       </c>
     </row>
-    <row r="555" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="555" spans="1:7" x14ac:dyDescent="0.75">
       <c r="A555">
         <v>29</v>
       </c>
@@ -14796,11 +14850,14 @@
       <c r="E555">
         <v>35</v>
       </c>
+      <c r="F555" t="s">
+        <v>855</v>
+      </c>
       <c r="G555" t="b">
         <v>1</v>
       </c>
     </row>
-    <row r="556" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="556" spans="1:7" x14ac:dyDescent="0.75">
       <c r="A556">
         <v>29</v>
       </c>
@@ -14816,11 +14873,14 @@
       <c r="E556">
         <v>7102422991</v>
       </c>
+      <c r="F556" t="s">
+        <v>855</v>
+      </c>
       <c r="G556" t="b">
         <v>1</v>
       </c>
     </row>
-    <row r="557" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="557" spans="1:7" x14ac:dyDescent="0.75">
       <c r="A557">
         <v>29</v>
       </c>
@@ -14836,11 +14896,14 @@
       <c r="E557">
         <v>36</v>
       </c>
+      <c r="F557" t="s">
+        <v>855</v>
+      </c>
       <c r="G557" t="b">
         <v>1</v>
       </c>
     </row>
-    <row r="558" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="558" spans="1:7" x14ac:dyDescent="0.75">
       <c r="A558">
         <v>29</v>
       </c>
@@ -14856,8 +14919,14 @@
       <c r="E558">
         <v>37</v>
       </c>
-    </row>
-    <row r="559" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="F558" t="s">
+        <v>855</v>
+      </c>
+      <c r="G558" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="559" spans="1:7" x14ac:dyDescent="0.75">
       <c r="A559">
         <v>29</v>
       </c>
@@ -14873,8 +14942,14 @@
       <c r="E559">
         <v>38</v>
       </c>
-    </row>
-    <row r="560" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="F559" t="s">
+        <v>855</v>
+      </c>
+      <c r="G559" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="560" spans="1:7" x14ac:dyDescent="0.75">
       <c r="A560">
         <v>29</v>
       </c>
@@ -14890,22 +14965,34 @@
       <c r="E560">
         <v>39</v>
       </c>
-    </row>
-    <row r="561" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="F560" t="s">
+        <v>855</v>
+      </c>
+      <c r="G560" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="561" spans="1:7" x14ac:dyDescent="0.75">
       <c r="A561">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="B561" t="s">
-        <v>857</v>
+        <v>858</v>
       </c>
       <c r="C561" t="s">
-        <v>855</v>
+        <v>155</v>
+      </c>
+      <c r="D561" t="s">
+        <v>156</v>
       </c>
       <c r="E561">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="562" spans="1:5" x14ac:dyDescent="0.35">
+        <v>7103041111</v>
+      </c>
+      <c r="G561" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="562" spans="1:7" x14ac:dyDescent="0.75">
       <c r="A562">
         <v>32</v>
       </c>
@@ -14913,16 +15000,19 @@
         <v>858</v>
       </c>
       <c r="C562" t="s">
-        <v>155</v>
+        <v>158</v>
       </c>
       <c r="D562" t="s">
-        <v>156</v>
+        <v>859</v>
       </c>
       <c r="E562">
-        <v>7103041111</v>
-      </c>
-    </row>
-    <row r="563" spans="1:5" x14ac:dyDescent="0.35">
+        <v>7102658830</v>
+      </c>
+      <c r="G562" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="563" spans="1:7" x14ac:dyDescent="0.75">
       <c r="A563">
         <v>32</v>
       </c>
@@ -14930,33 +15020,39 @@
         <v>858</v>
       </c>
       <c r="C563" t="s">
-        <v>158</v>
+        <v>860</v>
       </c>
       <c r="D563" t="s">
-        <v>859</v>
+        <v>861</v>
       </c>
       <c r="E563">
-        <v>7102658830</v>
-      </c>
-    </row>
-    <row r="564" spans="1:5" x14ac:dyDescent="0.35">
+        <v>5</v>
+      </c>
+      <c r="G563" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="564" spans="1:7" x14ac:dyDescent="0.75">
       <c r="A564">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="B564" t="s">
-        <v>858</v>
+        <v>866</v>
       </c>
       <c r="C564" t="s">
-        <v>860</v>
+        <v>863</v>
       </c>
       <c r="D564" t="s">
-        <v>861</v>
+        <v>862</v>
       </c>
       <c r="E564">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="565" spans="1:5" x14ac:dyDescent="0.35">
+        <v>6</v>
+      </c>
+      <c r="G564" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="565" spans="1:7" x14ac:dyDescent="0.75">
       <c r="A565">
         <v>35</v>
       </c>
@@ -14967,13 +15063,16 @@
         <v>863</v>
       </c>
       <c r="D565" t="s">
-        <v>862</v>
+        <v>115</v>
       </c>
       <c r="E565">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="566" spans="1:5" x14ac:dyDescent="0.35">
+        <v>1</v>
+      </c>
+      <c r="G565" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="566" spans="1:7" x14ac:dyDescent="0.75">
       <c r="A566">
         <v>35</v>
       </c>
@@ -14981,41 +15080,47 @@
         <v>866</v>
       </c>
       <c r="C566" t="s">
+        <v>864</v>
+      </c>
+      <c r="D566" t="s">
+        <v>865</v>
+      </c>
+      <c r="E566">
+        <v>2</v>
+      </c>
+      <c r="G566" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="567" spans="1:7" x14ac:dyDescent="0.75">
+      <c r="A567">
+        <v>36</v>
+      </c>
+      <c r="B567" t="s">
+        <v>867</v>
+      </c>
+      <c r="C567" t="s">
         <v>863</v>
       </c>
-      <c r="D566" t="s">
+      <c r="D567" t="s">
         <v>115</v>
       </c>
-      <c r="E566">
+      <c r="E567">
         <v>1</v>
       </c>
-    </row>
-    <row r="567" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A567">
-        <v>35</v>
-      </c>
-      <c r="B567" t="s">
-        <v>866</v>
-      </c>
-      <c r="C567" t="s">
-        <v>864</v>
-      </c>
-      <c r="D567" t="s">
-        <v>865</v>
-      </c>
-      <c r="E567">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="568" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="G567" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="568" spans="1:7" x14ac:dyDescent="0.75">
       <c r="A568">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="B568" t="s">
-        <v>867</v>
+        <v>868</v>
       </c>
       <c r="C568" t="s">
-        <v>863</v>
+        <v>869</v>
       </c>
       <c r="D568" t="s">
         <v>115</v>
@@ -15023,8 +15128,11 @@
       <c r="E568">
         <v>1</v>
       </c>
-    </row>
-    <row r="569" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="G568" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="569" spans="1:7" x14ac:dyDescent="0.75">
       <c r="A569">
         <v>37</v>
       </c>
@@ -15032,16 +15140,19 @@
         <v>868</v>
       </c>
       <c r="C569" t="s">
-        <v>869</v>
+        <v>871</v>
       </c>
       <c r="D569" t="s">
-        <v>115</v>
+        <v>870</v>
       </c>
       <c r="E569">
+        <v>7</v>
+      </c>
+      <c r="G569" t="b">
         <v>1</v>
       </c>
     </row>
-    <row r="570" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="570" spans="1:7" x14ac:dyDescent="0.75">
       <c r="A570">
         <v>37</v>
       </c>
@@ -15049,33 +15160,39 @@
         <v>868</v>
       </c>
       <c r="C570" t="s">
-        <v>871</v>
+        <v>864</v>
       </c>
       <c r="D570" t="s">
-        <v>870</v>
+        <v>865</v>
       </c>
       <c r="E570">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="571" spans="1:5" x14ac:dyDescent="0.35">
+        <v>2</v>
+      </c>
+      <c r="G570" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="571" spans="1:7" x14ac:dyDescent="0.75">
       <c r="A571">
-        <v>37</v>
+        <v>44</v>
       </c>
       <c r="B571" t="s">
-        <v>868</v>
+        <v>873</v>
       </c>
       <c r="C571" t="s">
-        <v>864</v>
+        <v>874</v>
       </c>
       <c r="D571" t="s">
-        <v>865</v>
+        <v>872</v>
       </c>
       <c r="E571">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="572" spans="1:5" x14ac:dyDescent="0.35">
+        <v>8</v>
+      </c>
+      <c r="G571" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="572" spans="1:7" x14ac:dyDescent="0.75">
       <c r="A572">
         <v>44</v>
       </c>
@@ -15083,16 +15200,19 @@
         <v>873</v>
       </c>
       <c r="C572" t="s">
-        <v>874</v>
+        <v>876</v>
       </c>
       <c r="D572" t="s">
-        <v>872</v>
+        <v>875</v>
       </c>
       <c r="E572">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="573" spans="1:5" x14ac:dyDescent="0.35">
+        <v>9</v>
+      </c>
+      <c r="G572" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="573" spans="1:7" x14ac:dyDescent="0.75">
       <c r="A573">
         <v>44</v>
       </c>
@@ -15100,16 +15220,19 @@
         <v>873</v>
       </c>
       <c r="C573" t="s">
-        <v>876</v>
+        <v>878</v>
       </c>
       <c r="D573" t="s">
-        <v>875</v>
+        <v>877</v>
       </c>
       <c r="E573">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="574" spans="1:5" x14ac:dyDescent="0.35">
+        <v>10</v>
+      </c>
+      <c r="G573" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="574" spans="1:7" x14ac:dyDescent="0.75">
       <c r="A574">
         <v>44</v>
       </c>
@@ -15117,16 +15240,19 @@
         <v>873</v>
       </c>
       <c r="C574" t="s">
-        <v>878</v>
+        <v>880</v>
       </c>
       <c r="D574" t="s">
-        <v>877</v>
+        <v>879</v>
       </c>
       <c r="E574">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="575" spans="1:5" x14ac:dyDescent="0.35">
+        <v>11</v>
+      </c>
+      <c r="G574" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="575" spans="1:7" x14ac:dyDescent="0.75">
       <c r="A575">
         <v>44</v>
       </c>
@@ -15134,16 +15260,19 @@
         <v>873</v>
       </c>
       <c r="C575" t="s">
-        <v>880</v>
+        <v>882</v>
       </c>
       <c r="D575" t="s">
-        <v>879</v>
+        <v>881</v>
       </c>
       <c r="E575">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="576" spans="1:5" x14ac:dyDescent="0.35">
+        <v>12</v>
+      </c>
+      <c r="G575" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="576" spans="1:7" x14ac:dyDescent="0.75">
       <c r="A576">
         <v>44</v>
       </c>
@@ -15151,33 +15280,39 @@
         <v>873</v>
       </c>
       <c r="C576" t="s">
+        <v>883</v>
+      </c>
+      <c r="D576" t="s">
+        <v>879</v>
+      </c>
+      <c r="E576">
+        <v>13</v>
+      </c>
+      <c r="G576" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="577" spans="1:7" x14ac:dyDescent="0.75">
+      <c r="A577">
+        <v>72</v>
+      </c>
+      <c r="B577" t="s">
+        <v>889</v>
+      </c>
+      <c r="C577" t="s">
         <v>882</v>
       </c>
-      <c r="D576" t="s">
-        <v>881</v>
-      </c>
-      <c r="E576">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="577" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A577">
-        <v>44</v>
-      </c>
-      <c r="B577" t="s">
-        <v>873</v>
-      </c>
-      <c r="C577" t="s">
-        <v>883</v>
-      </c>
       <c r="D577" t="s">
-        <v>879</v>
+        <v>499</v>
       </c>
       <c r="E577">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="578" spans="1:5" x14ac:dyDescent="0.35">
+        <v>6601967008</v>
+      </c>
+      <c r="G577" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="578" spans="1:7" x14ac:dyDescent="0.75">
       <c r="A578">
         <v>72</v>
       </c>
@@ -15185,16 +15320,19 @@
         <v>889</v>
       </c>
       <c r="C578" t="s">
-        <v>882</v>
+        <v>884</v>
       </c>
       <c r="D578" t="s">
-        <v>499</v>
+        <v>503</v>
       </c>
       <c r="E578">
-        <v>6601967008</v>
-      </c>
-    </row>
-    <row r="579" spans="1:5" x14ac:dyDescent="0.35">
+        <v>7402437110</v>
+      </c>
+      <c r="G578" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="579" spans="1:7" x14ac:dyDescent="0.75">
       <c r="A579">
         <v>72</v>
       </c>
@@ -15202,16 +15340,19 @@
         <v>889</v>
       </c>
       <c r="C579" t="s">
-        <v>884</v>
+        <v>876</v>
       </c>
       <c r="D579" t="s">
-        <v>503</v>
+        <v>885</v>
       </c>
       <c r="E579">
-        <v>7402437110</v>
-      </c>
-    </row>
-    <row r="580" spans="1:5" x14ac:dyDescent="0.35">
+        <v>14</v>
+      </c>
+      <c r="G579" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="580" spans="1:7" x14ac:dyDescent="0.75">
       <c r="A580">
         <v>72</v>
       </c>
@@ -15219,16 +15360,19 @@
         <v>889</v>
       </c>
       <c r="C580" t="s">
-        <v>876</v>
+        <v>887</v>
       </c>
       <c r="D580" t="s">
-        <v>885</v>
+        <v>886</v>
       </c>
       <c r="E580">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="581" spans="1:5" x14ac:dyDescent="0.35">
+        <v>15</v>
+      </c>
+      <c r="G580" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="581" spans="1:7" x14ac:dyDescent="0.75">
       <c r="A581">
         <v>72</v>
       </c>
@@ -15236,30 +15380,16 @@
         <v>889</v>
       </c>
       <c r="C581" t="s">
-        <v>887</v>
+        <v>888</v>
       </c>
       <c r="D581" t="s">
-        <v>886</v>
+        <v>509</v>
       </c>
       <c r="E581">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="582" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A582">
-        <v>72</v>
-      </c>
-      <c r="B582" t="s">
-        <v>889</v>
-      </c>
-      <c r="C582" t="s">
-        <v>888</v>
-      </c>
-      <c r="D582" t="s">
-        <v>509</v>
-      </c>
-      <c r="E582">
         <v>7101785555</v>
+      </c>
+      <c r="G581" t="b">
+        <v>1</v>
       </c>
     </row>
   </sheetData>
@@ -15277,7 +15407,7 @@
       <selection activeCell="B9" sqref="B9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="14.75" x14ac:dyDescent="0.75"/>
   <cols>
     <col min="1" max="1" width="2.81640625" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="77.54296875" bestFit="1" customWidth="1"/>
@@ -15288,7 +15418,7 @@
     <col min="8" max="8" width="22.08984375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.75">
       <c r="A1">
         <v>29</v>
       </c>
@@ -15311,7 +15441,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.75">
       <c r="A2">
         <v>29</v>
       </c>
@@ -15331,7 +15461,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.75">
       <c r="A3">
         <v>29</v>
       </c>
@@ -15351,7 +15481,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.75">
       <c r="A4">
         <v>29</v>
       </c>
@@ -15371,7 +15501,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.75">
       <c r="A5">
         <v>29</v>
       </c>
@@ -15391,7 +15521,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.75">
       <c r="A6">
         <v>29</v>
       </c>
@@ -15411,7 +15541,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.75">
       <c r="A7">
         <v>29</v>
       </c>
@@ -15431,7 +15561,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:7" x14ac:dyDescent="0.75">
       <c r="A8">
         <v>29</v>
       </c>
@@ -15451,7 +15581,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:7" x14ac:dyDescent="0.75">
       <c r="A9">
         <v>29</v>
       </c>
@@ -15471,7 +15601,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:7" x14ac:dyDescent="0.75">
       <c r="A10">
         <v>29</v>
       </c>
@@ -15491,7 +15621,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:7" x14ac:dyDescent="0.75">
       <c r="A11">
         <v>29</v>
       </c>
@@ -15511,7 +15641,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:7" x14ac:dyDescent="0.75">
       <c r="A12">
         <v>29</v>
       </c>
@@ -15531,7 +15661,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:7" x14ac:dyDescent="0.75">
       <c r="A13">
         <v>29</v>
       </c>
@@ -15551,7 +15681,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:7" x14ac:dyDescent="0.75">
       <c r="A14">
         <v>29</v>
       </c>
@@ -15571,7 +15701,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:7" x14ac:dyDescent="0.75">
       <c r="A15">
         <v>29</v>
       </c>
@@ -15591,7 +15721,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:7" x14ac:dyDescent="0.75">
       <c r="A16">
         <v>29</v>
       </c>
@@ -15611,7 +15741,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:7" x14ac:dyDescent="0.75">
       <c r="A17">
         <v>29</v>
       </c>
@@ -15631,7 +15761,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:7" x14ac:dyDescent="0.75">
       <c r="A18">
         <v>29</v>
       </c>
@@ -15651,7 +15781,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:7" x14ac:dyDescent="0.75">
       <c r="A19">
         <v>29</v>
       </c>
@@ -15671,7 +15801,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:7" x14ac:dyDescent="0.75">
       <c r="A20">
         <v>29</v>
       </c>
@@ -15691,7 +15821,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:7" x14ac:dyDescent="0.75">
       <c r="A21">
         <v>29</v>
       </c>
@@ -15711,7 +15841,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="22" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:7" x14ac:dyDescent="0.75">
       <c r="A22">
         <v>29</v>
       </c>
@@ -15731,7 +15861,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="23" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:7" x14ac:dyDescent="0.75">
       <c r="A23">
         <v>29</v>
       </c>
@@ -15748,7 +15878,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="24" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:7" x14ac:dyDescent="0.75">
       <c r="A24">
         <v>29</v>
       </c>
@@ -15765,7 +15895,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="25" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:7" x14ac:dyDescent="0.75">
       <c r="A25">
         <v>29</v>
       </c>
@@ -15782,7 +15912,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="26" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:7" x14ac:dyDescent="0.75">
       <c r="A26">
         <v>29</v>
       </c>
